--- a/data/duck_data.xlsx
+++ b/data/duck_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allan\Documents\DS_Projects\portfolio-deployments\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA28C1F-2855-4789-8B26-AFDF2EF81245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF642C0B-C00D-49CE-91E7-7D7C8172DCB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EF9DEEC2-186D-4161-AB80-57C24753F6AE}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8928" xr2:uid="{EF9DEEC2-186D-4161-AB80-57C24753F6AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Ducks" sheetId="1" r:id="rId1"/>
@@ -375,9 +375,6 @@
     <t>Purchase_Retailer</t>
   </si>
   <si>
-    <t>Phyiscal Store</t>
-  </si>
-  <si>
     <t>Online</t>
   </si>
   <si>
@@ -1330,6 +1327,9 @@
   </si>
   <si>
     <t>QQ</t>
+  </si>
+  <si>
+    <t>Physical Store</t>
   </si>
 </sst>
 </file>
@@ -1817,9 +1817,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28BE0B7-C424-43DE-B13E-D21D7F7285C7}">
   <dimension ref="A1:V109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="88" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F109" sqref="F109"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="88" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1858,16 +1858,16 @@
         <v>111</v>
       </c>
       <c r="E1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>108</v>
@@ -1879,7 +1879,7 @@
         <v>103</v>
       </c>
       <c r="L1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M1" t="s">
         <v>105</v>
@@ -1908,22 +1908,22 @@
         <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D2" t="s">
         <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I2" s="1">
         <v>42795</v>
@@ -1935,7 +1935,7 @@
         <v>-79.942740999999998</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M2" t="s">
         <v>50</v>
@@ -1965,22 +1965,22 @@
         <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I3" s="1">
         <v>42979</v>
@@ -1992,7 +1992,7 @@
         <v>-73.846541999999999</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M3" t="s">
         <v>50</v>
@@ -2022,22 +2022,22 @@
         <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I4" s="1">
         <v>43070</v>
@@ -2049,7 +2049,7 @@
         <v>-73.996311000000006</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M4" t="s">
         <v>50</v>
@@ -2078,22 +2078,22 @@
         <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I5" s="1">
         <v>43101</v>
@@ -2105,7 +2105,7 @@
         <v>-80.526619999999994</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M5" t="s">
         <v>50</v>
@@ -2135,22 +2135,22 @@
         <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
       </c>
       <c r="E6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F6" t="s">
         <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I6" s="1">
         <v>43134</v>
@@ -2162,7 +2162,7 @@
         <v>-77.025510999999995</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M6" t="s">
         <v>50</v>
@@ -2192,22 +2192,22 @@
         <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D7" t="s">
         <v>109</v>
       </c>
       <c r="E7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I7" s="1">
         <v>43134</v>
@@ -2219,7 +2219,7 @@
         <v>-77.025510999999995</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M7" t="s">
         <v>50</v>
@@ -2248,22 +2248,22 @@
         <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D8" t="s">
         <v>109</v>
       </c>
       <c r="E8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F8" t="s">
         <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I8" s="1">
         <v>43134</v>
@@ -2275,7 +2275,7 @@
         <v>-77.025510999999995</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M8" t="s">
         <v>50</v>
@@ -2302,25 +2302,25 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I9" s="1">
         <v>43160</v>
@@ -2332,7 +2332,7 @@
         <v>-77.089934999999997</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M9" t="s">
         <v>50</v>
@@ -2362,19 +2362,19 @@
         <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I10" s="1">
         <v>43252</v>
@@ -2386,7 +2386,7 @@
         <v>2.1743480000000002</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M10" t="s">
         <v>53</v>
@@ -2415,22 +2415,22 @@
         <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I11" s="1">
         <v>43374</v>
@@ -2442,7 +2442,7 @@
         <v>-77.111007000000001</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M11" t="s">
         <v>50</v>
@@ -2472,22 +2472,22 @@
         <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I12" s="1">
         <v>43435</v>
@@ -2499,7 +2499,7 @@
         <v>-74.044769000000002</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M12" t="s">
         <v>50</v>
@@ -2526,25 +2526,25 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F13" t="s">
         <v>26</v>
       </c>
       <c r="G13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I13" s="1">
         <v>43617</v>
@@ -2556,7 +2556,7 @@
         <v>-77.039688999999996</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M13" t="s">
         <v>50</v>
@@ -2585,22 +2585,22 @@
         <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G14" t="s">
         <v>60</v>
       </c>
       <c r="H14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I14" s="1">
         <v>43617</v>
@@ -2612,7 +2612,7 @@
         <v>16.372503999999999</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M14" t="s">
         <v>55</v>
@@ -2642,22 +2642,22 @@
         <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F15" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I15" s="1">
         <v>43617</v>
@@ -2669,7 +2669,7 @@
         <v>-0.12764700000000001</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M15" t="s">
         <v>50</v>
@@ -2699,22 +2699,22 @@
         <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I16" s="1">
         <v>43977</v>
@@ -2726,7 +2726,7 @@
         <v>-71.147199000000001</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M16" t="s">
         <v>50</v>
@@ -2752,25 +2752,25 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I17" s="1">
         <v>43977</v>
@@ -2782,7 +2782,7 @@
         <v>-71.147199000000001</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M17" t="s">
         <v>50</v>
@@ -2809,25 +2809,25 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I18" s="1">
         <v>44136</v>
@@ -2839,7 +2839,7 @@
         <v>-70.667964999999995</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M18" t="s">
         <v>50</v>
@@ -2866,25 +2866,25 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D19" t="s">
         <v>43</v>
       </c>
       <c r="E19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I19" s="1">
         <v>44228</v>
@@ -2896,7 +2896,7 @@
         <v>-71.147199000000001</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M19" t="s">
         <v>50</v>
@@ -2925,22 +2925,22 @@
         <v>86</v>
       </c>
       <c r="C20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I20" s="1">
         <v>44378</v>
@@ -2952,7 +2952,7 @@
         <v>-70.854718000000005</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M20" t="s">
         <v>50</v>
@@ -2982,22 +2982,22 @@
         <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I21" s="1">
         <v>44455</v>
@@ -3009,7 +3009,7 @@
         <v>-71.147199000000001</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M21" t="s">
         <v>50</v>
@@ -3039,22 +3039,22 @@
         <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I22" s="1">
         <v>44501</v>
@@ -3066,7 +3066,7 @@
         <v>-90.489697000000007</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M22" t="s">
         <v>52</v>
@@ -3095,22 +3095,22 @@
         <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F23" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G23" t="s">
         <v>42</v>
       </c>
       <c r="H23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I23" s="1">
         <v>44682</v>
@@ -3122,7 +3122,7 @@
         <v>34.775413</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M23" t="s">
         <v>50</v>
@@ -3152,22 +3152,22 @@
         <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G24" t="s">
         <v>42</v>
       </c>
       <c r="H24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I24" s="1">
         <v>44682</v>
@@ -3179,7 +3179,7 @@
         <v>34.775413</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M24" t="s">
         <v>50</v>
@@ -3209,22 +3209,22 @@
         <v>66</v>
       </c>
       <c r="C25" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G25" t="s">
         <v>42</v>
       </c>
       <c r="H25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I25" s="1">
         <v>44682</v>
@@ -3236,7 +3236,7 @@
         <v>34.775413</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M25" t="s">
         <v>50</v>
@@ -3265,22 +3265,22 @@
         <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F26" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G26" t="s">
         <v>42</v>
       </c>
       <c r="H26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I26" s="1">
         <v>44682</v>
@@ -3292,7 +3292,7 @@
         <v>35.203386999999999</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M26" t="s">
         <v>50</v>
@@ -3322,22 +3322,22 @@
         <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G27" t="s">
         <v>42</v>
       </c>
       <c r="H27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I27" s="1">
         <v>44682</v>
@@ -3349,7 +3349,7 @@
         <v>34.775413</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M27" t="s">
         <v>50</v>
@@ -3379,22 +3379,22 @@
         <v>95</v>
       </c>
       <c r="C28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I28" s="1">
         <v>44713</v>
@@ -3406,7 +3406,7 @@
         <v>-71.147199000000001</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M28" t="s">
         <v>50</v>
@@ -3435,22 +3435,22 @@
         <v>92</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E29" t="s">
         <v>41</v>
       </c>
       <c r="F29" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I29" s="1">
         <v>44743</v>
@@ -3462,7 +3462,7 @@
         <v>2.340983</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M29" t="s">
         <v>51</v>
@@ -3489,25 +3489,25 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E30" t="s">
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I30" s="1">
         <v>44762</v>
@@ -3519,7 +3519,7 @@
         <v>-70.895891000000006</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M30" t="s">
         <v>50</v>
@@ -3546,25 +3546,25 @@
         <v>84</v>
       </c>
       <c r="B31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C31" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I31" s="1">
         <v>44774</v>
@@ -3576,7 +3576,7 @@
         <v>-71.208479999999994</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M31" t="s">
         <v>50</v>
@@ -3605,22 +3605,22 @@
         <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E32" t="s">
         <v>46</v>
       </c>
       <c r="F32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G32" t="s">
         <v>22</v>
       </c>
       <c r="H32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I32" s="1">
         <v>44787</v>
@@ -3632,7 +3632,7 @@
         <v>-73.554688999999996</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M32" t="s">
         <v>54</v>
@@ -3662,22 +3662,22 @@
         <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E33" t="s">
         <v>46</v>
       </c>
       <c r="F33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G33" t="s">
         <v>22</v>
       </c>
       <c r="H33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I33" s="1">
         <v>44787</v>
@@ -3689,7 +3689,7 @@
         <v>-73.554688999999996</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M33" t="s">
         <v>50</v>
@@ -3716,25 +3716,25 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E34" t="s">
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I34" s="1">
         <v>44803</v>
@@ -3746,7 +3746,7 @@
         <v>-70.895891000000006</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M34" t="s">
         <v>50</v>
@@ -3775,22 +3775,22 @@
         <v>87</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I35" s="1">
         <v>44805</v>
@@ -3802,7 +3802,7 @@
         <v>-72.624831999999998</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M35" t="s">
         <v>50</v>
@@ -3832,22 +3832,22 @@
         <v>62</v>
       </c>
       <c r="C36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E36" t="s">
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I36" s="1">
         <v>44805</v>
@@ -3859,7 +3859,7 @@
         <v>-70.892773000000005</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M36" t="s">
         <v>50</v>
@@ -3889,22 +3889,22 @@
         <v>91</v>
       </c>
       <c r="C37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I37" s="1">
         <v>44828</v>
@@ -3916,7 +3916,7 @@
         <v>-71.625247999999999</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M37" t="s">
         <v>54</v>
@@ -3942,25 +3942,25 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I38" s="1">
         <v>44829</v>
@@ -3972,7 +3972,7 @@
         <v>-71.625247999999999</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M38" t="s">
         <v>54</v>
@@ -3999,25 +3999,25 @@
         <v>96</v>
       </c>
       <c r="B39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C39" t="s">
         <v>98</v>
       </c>
       <c r="D39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I39" s="1">
         <v>44872</v>
@@ -4029,7 +4029,7 @@
         <v>-71.191412</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M39" t="s">
         <v>50</v>
@@ -4056,25 +4056,25 @@
         <v>97</v>
       </c>
       <c r="B40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C40" t="s">
         <v>98</v>
       </c>
       <c r="D40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E40" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I40" s="1">
         <v>44872</v>
@@ -4086,7 +4086,7 @@
         <v>-71.191412</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M40" t="s">
         <v>50</v>
@@ -4109,28 +4109,28 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B41" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C41" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I41" s="1">
         <v>44933</v>
@@ -4165,28 +4165,28 @@
     </row>
     <row r="42" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>229</v>
+      </c>
+      <c r="B42" t="s">
+        <v>239</v>
+      </c>
+      <c r="C42" t="s">
+        <v>421</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B42" t="s">
-        <v>240</v>
-      </c>
-      <c r="C42" t="s">
-        <v>112</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="E42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I42" s="1">
         <v>44933</v>
@@ -4198,7 +4198,7 @@
         <v>-71.185913999999997</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M42" t="s">
         <v>54</v>
@@ -4221,28 +4221,28 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C43" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I43" s="1">
         <v>44951</v>
@@ -4254,7 +4254,7 @@
         <v>-73.151848000000001</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M43" t="s">
         <v>54</v>
@@ -4277,28 +4277,28 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B44" t="s">
+        <v>234</v>
+      </c>
+      <c r="C44" t="s">
+        <v>421</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E44" t="s">
+        <v>236</v>
+      </c>
+      <c r="F44" t="s">
         <v>235</v>
       </c>
-      <c r="C44" t="s">
-        <v>112</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E44" t="s">
-        <v>237</v>
-      </c>
-      <c r="F44" t="s">
-        <v>236</v>
-      </c>
       <c r="G44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I44" s="1">
         <v>44951</v>
@@ -4333,28 +4333,28 @@
     </row>
     <row r="45" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B45" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C45" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E45" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F45" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I45" s="1">
         <v>44968</v>
@@ -4366,7 +4366,7 @@
         <v>-72.386257999999998</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M45" t="s">
         <v>50</v>
@@ -4389,28 +4389,28 @@
     </row>
     <row r="46" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B46" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C46" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E46" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F46" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I46" s="1">
         <v>44968</v>
@@ -4422,7 +4422,7 @@
         <v>-72.386257999999998</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M46" t="s">
         <v>50</v>
@@ -4445,28 +4445,28 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B47" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C47" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E47" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F47" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G47" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H47" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I47" s="1">
         <v>44968</v>
@@ -4501,28 +4501,28 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B48">
         <v>21</v>
       </c>
       <c r="C48" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E48" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F48" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I48" s="1">
         <v>44968</v>
@@ -4557,28 +4557,28 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B49" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C49" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E49" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G49" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H49" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I49" s="1">
         <v>44968</v>
@@ -4615,28 +4615,28 @@
     </row>
     <row r="50" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B50" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C50" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F50" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I50" s="1">
         <v>44968</v>
@@ -4648,7 +4648,7 @@
         <v>-72.386257999999998</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M50" t="s">
         <v>54</v>
@@ -4672,28 +4672,28 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B51" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C51" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E51" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F51" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I51" s="1">
         <v>44968</v>
@@ -4731,28 +4731,28 @@
     </row>
     <row r="52" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B52" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C52" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E52" t="s">
+        <v>264</v>
+      </c>
+      <c r="F52" t="s">
         <v>265</v>
       </c>
-      <c r="F52" t="s">
-        <v>266</v>
-      </c>
       <c r="G52" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H52" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I52" s="1">
         <v>44975</v>
@@ -4764,7 +4764,7 @@
         <v>-97.761235999999997</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M52" t="s">
         <v>51</v>
@@ -4787,28 +4787,28 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B53">
         <v>22</v>
       </c>
       <c r="C53" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E53" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F53" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G53" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H53" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I53" s="1">
         <v>44982</v>
@@ -4843,28 +4843,28 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B54" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C54" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E54" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F54" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G54" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H54" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I54" s="1">
         <v>44982</v>
@@ -4899,28 +4899,28 @@
     </row>
     <row r="55" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B55" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C55" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E55" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F55" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I55" s="1">
         <v>44982</v>
@@ -4932,7 +4932,7 @@
         <v>-71.034631000000005</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M55" t="s">
         <v>50</v>
@@ -4955,28 +4955,28 @@
     </row>
     <row r="56" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B56" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C56" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E56" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F56" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I56" s="1">
         <v>44982</v>
@@ -4988,7 +4988,7 @@
         <v>-71.034631000000005</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M56" t="s">
         <v>50</v>
@@ -5011,28 +5011,28 @@
     </row>
     <row r="57" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B57" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C57" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F57" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G57" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H57" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I57" s="1">
         <v>45004</v>
@@ -5044,7 +5044,7 @@
         <v>-75.131957</v>
       </c>
       <c r="L57" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M57" t="s">
         <v>50</v>
@@ -5067,28 +5067,28 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B58" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E58" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F58" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G58" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H58" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I58" s="1">
         <v>45004</v>
@@ -5100,7 +5100,7 @@
         <v>-75.131495999999999</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M58" t="s">
         <v>50</v>
@@ -5123,28 +5123,28 @@
     </row>
     <row r="59" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>259</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>131</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-      <c r="C59" t="s">
-        <v>132</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="E59" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F59" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G59" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H59" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I59" s="1">
         <v>45004</v>
@@ -5156,7 +5156,7 @@
         <v>-75.131495999999999</v>
       </c>
       <c r="L59" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M59" t="s">
         <v>50</v>
@@ -5179,28 +5179,28 @@
     </row>
     <row r="60" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B60">
         <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D60" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E60" t="s">
         <v>278</v>
       </c>
-      <c r="E60" t="s">
-        <v>279</v>
-      </c>
       <c r="F60" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G60" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H60" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I60" s="1">
         <v>45008</v>
@@ -5212,7 +5212,7 @@
         <v>-71.047290735065801</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M60" t="s">
         <v>54</v>
@@ -5236,28 +5236,28 @@
     </row>
     <row r="61" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B61" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C61" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F61" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G61" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H61" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I61" s="1">
         <v>45011</v>
@@ -5269,7 +5269,7 @@
         <v>-71.213526000000002</v>
       </c>
       <c r="L61" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="M61" t="s">
         <v>50</v>
@@ -5294,28 +5294,28 @@
     </row>
     <row r="62" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B62" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C62" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E62" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F62" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I62" s="1">
         <v>45011</v>
@@ -5327,7 +5327,7 @@
         <v>-71.213526000000002</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M62" t="s">
         <v>50</v>
@@ -5350,28 +5350,28 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>314</v>
+      </c>
+      <c r="B63" t="s">
+        <v>375</v>
+      </c>
+      <c r="C63" t="s">
+        <v>421</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B63" t="s">
-        <v>376</v>
-      </c>
-      <c r="C63" t="s">
-        <v>112</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>316</v>
-      </c>
       <c r="E63" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F63" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G63" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H63" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I63" s="1">
         <v>45053</v>
@@ -5408,28 +5408,28 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B64" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C64" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F64" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G64" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H64" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I64" s="1">
         <v>45066</v>
@@ -5465,28 +5465,28 @@
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B65" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C65" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E65" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F65" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I65" s="1">
         <v>45066</v>
@@ -5523,28 +5523,28 @@
     </row>
     <row r="66" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B66">
         <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E66" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G66" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H66" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I66" s="1">
         <v>45067</v>
@@ -5556,7 +5556,7 @@
         <v>-71.185913999999997</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M66" t="s">
         <v>50</v>
@@ -5580,28 +5580,28 @@
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B67">
         <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E67" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F67" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G67" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H67" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I67" s="1">
         <v>45067</v>
@@ -5613,7 +5613,7 @@
         <v>-71.185913999999997</v>
       </c>
       <c r="L67" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M67" t="s">
         <v>50</v>
@@ -5637,28 +5637,28 @@
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B68" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C68" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E68" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F68" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I68" s="1">
         <v>45067</v>
@@ -5670,7 +5670,7 @@
         <v>-71.185913999999997</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M68" t="s">
         <v>50</v>
@@ -5694,28 +5694,28 @@
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B69" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C69" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E69" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F69" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G69" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H69" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I69" s="1">
         <v>45067</v>
@@ -5751,28 +5751,28 @@
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B70" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C70" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E70" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F70" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G70" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H70" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I70" s="1">
         <v>45067</v>
@@ -5810,28 +5810,28 @@
     </row>
     <row r="71" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B71" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C71" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E71" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F71" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I71" s="1">
         <v>45068</v>
@@ -5843,7 +5843,7 @@
         <v>-90.447294497032402</v>
       </c>
       <c r="L71" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M71" t="s">
         <v>50</v>
@@ -5866,28 +5866,28 @@
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B72" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C72" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E72" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F72" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G72" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H72" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I72" s="1">
         <v>45078</v>
@@ -5922,28 +5922,28 @@
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B73" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C73" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E73" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F73" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G73" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H73" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I73" s="1">
         <v>45078</v>
@@ -5979,28 +5979,28 @@
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B74" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C74" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E74" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F74" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G74" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H74" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I74" s="1">
         <v>45078</v>
@@ -6036,28 +6036,28 @@
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>286</v>
+      </c>
+      <c r="B75" t="s">
+        <v>378</v>
+      </c>
+      <c r="C75" t="s">
+        <v>421</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E75" t="s">
         <v>287</v>
       </c>
-      <c r="B75" t="s">
-        <v>379</v>
-      </c>
-      <c r="C75" t="s">
-        <v>112</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E75" t="s">
-        <v>288</v>
-      </c>
       <c r="F75" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G75" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H75" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I75" s="1">
         <v>45078</v>
@@ -6093,28 +6093,28 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B76" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C76" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E76" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F76" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G76" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H76" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I76" s="1">
         <v>45078</v>
@@ -6151,28 +6151,28 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B77" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C77" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E77" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F77" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G77" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H77" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I77" s="1">
         <v>45084</v>
@@ -6208,28 +6208,28 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B78" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C78" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E78" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F78" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G78" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H78" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I78" s="1">
         <v>45084</v>
@@ -6264,28 +6264,28 @@
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B79" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C79" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E79" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F79" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G79" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H79" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I79" s="1">
         <v>45084</v>
@@ -6323,28 +6323,28 @@
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B80">
         <v>5</v>
       </c>
       <c r="C80" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E80" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F80" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G80" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H80" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I80" s="1">
         <v>45095</v>
@@ -6382,28 +6382,28 @@
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B81" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C81" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E81" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F81" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G81" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H81" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I81" s="1">
         <v>45095</v>
@@ -6440,28 +6440,28 @@
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B82">
         <v>6</v>
       </c>
       <c r="C82" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E82" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F82" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G82" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H82" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I82" s="1">
         <v>45095</v>
@@ -6498,28 +6498,28 @@
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B83">
         <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E83" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F83" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G83" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H83" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I83" s="1">
         <v>45095</v>
@@ -6557,28 +6557,28 @@
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B84" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C84" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E84" t="s">
+        <v>264</v>
+      </c>
+      <c r="F84" t="s">
         <v>265</v>
       </c>
-      <c r="F84" t="s">
-        <v>266</v>
-      </c>
       <c r="G84" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H84" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I84" s="1">
         <v>45107</v>
@@ -6615,28 +6615,28 @@
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B85" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C85" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E85" t="s">
+        <v>264</v>
+      </c>
+      <c r="F85" t="s">
         <v>265</v>
       </c>
-      <c r="F85" t="s">
-        <v>266</v>
-      </c>
       <c r="G85" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H85" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I85" s="1">
         <v>45107</v>
@@ -6672,28 +6672,28 @@
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B86">
         <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E86" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G86" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H86" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I86" s="1">
         <v>45128</v>
@@ -6728,28 +6728,28 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B87">
         <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E87" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F87" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G87" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H87" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I87" s="1">
         <v>45131</v>
@@ -6761,7 +6761,7 @@
         <v>-71.185913999999997</v>
       </c>
       <c r="L87" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M87" t="s">
         <v>50</v>
@@ -6786,28 +6786,28 @@
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B88" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C88" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E88" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F88" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G88" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H88" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I88" s="1">
         <v>45143</v>
@@ -6819,7 +6819,7 @@
         <v>-76.638570404484994</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M88" t="s">
         <v>50</v>
@@ -6844,28 +6844,28 @@
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B89" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C89" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E89" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F89" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G89" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H89" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I89" s="1">
         <v>45143</v>
@@ -6903,28 +6903,28 @@
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B90" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C90" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E90" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F90" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G90" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H90" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I90" s="1">
         <v>45150</v>
@@ -6936,7 +6936,7 @@
         <v>-77.188013773757405</v>
       </c>
       <c r="L90" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M90" t="s">
         <v>50</v>
@@ -6959,28 +6959,28 @@
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B91" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C91" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E91" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F91" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G91" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H91" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I91" s="1">
         <v>45150</v>
@@ -7017,28 +7017,28 @@
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B92" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C92" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E92" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F92" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G92" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H92" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I92" s="1">
         <v>45150</v>
@@ -7075,28 +7075,28 @@
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B93" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C93" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E93" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F93" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G93" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H93" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I93" s="1">
         <v>45150</v>
@@ -7132,28 +7132,28 @@
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B94" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C94" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D94" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E94" t="s">
+        <v>345</v>
+      </c>
+      <c r="F94" t="s">
         <v>344</v>
       </c>
-      <c r="E94" t="s">
-        <v>346</v>
-      </c>
-      <c r="F94" t="s">
-        <v>345</v>
-      </c>
       <c r="G94" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H94" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I94" s="1">
         <v>45171</v>
@@ -7190,28 +7190,28 @@
     </row>
     <row r="95" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B95" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C95" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E95" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F95" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I95" s="1">
         <v>45183</v>
@@ -7223,10 +7223,10 @@
         <v>-93.166926000000004</v>
       </c>
       <c r="L95" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M95" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -7248,28 +7248,28 @@
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B96" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C96" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E96" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F96" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G96" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H96" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I96" s="1">
         <v>45185</v>
@@ -7281,7 +7281,7 @@
         <v>-77.114897400000004</v>
       </c>
       <c r="L96" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M96" t="s">
         <v>50</v>
@@ -7305,28 +7305,28 @@
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B97">
         <v>20</v>
       </c>
       <c r="C97" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E97" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F97" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G97" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H97" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I97" s="1">
         <v>45185</v>
@@ -7362,28 +7362,28 @@
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B98" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C98" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E98" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F98" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G98" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H98" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I98" s="1">
         <v>45185</v>
@@ -7419,28 +7419,28 @@
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B99" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C99" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D99" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E99" t="s">
         <v>403</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>404</v>
       </c>
-      <c r="F99" t="s">
-        <v>405</v>
-      </c>
       <c r="G99" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H99" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I99" s="1">
         <v>45192</v>
@@ -7475,28 +7475,28 @@
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B100">
         <v>10</v>
       </c>
       <c r="C100" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E100" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F100" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G100" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H100" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I100" s="1">
         <v>45192</v>
@@ -7534,28 +7534,28 @@
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B101">
         <v>11</v>
       </c>
       <c r="C101" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E101" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F101" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G101" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H101" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I101" s="1">
         <v>45192</v>
@@ -7592,28 +7592,28 @@
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B102">
         <v>12</v>
       </c>
       <c r="C102" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E102" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F102" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G102" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H102" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I102" s="1">
         <v>45192</v>
@@ -7650,28 +7650,28 @@
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B103">
         <v>13</v>
       </c>
       <c r="C103" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E103" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F103" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G103" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H103" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I103" s="1">
         <v>45192</v>
@@ -7709,28 +7709,28 @@
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B104">
         <v>14</v>
       </c>
       <c r="C104" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E104" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F104" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G104" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H104" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I104" s="1">
         <v>45192</v>
@@ -7745,7 +7745,7 @@
         <v>41</v>
       </c>
       <c r="M104" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="N104">
         <v>1</v>
@@ -7767,28 +7767,28 @@
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B105">
         <v>15</v>
       </c>
       <c r="C105" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E105" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F105" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G105" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H105" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I105" s="1">
         <v>45197</v>
@@ -7803,7 +7803,7 @@
         <v>42</v>
       </c>
       <c r="M105" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -7826,28 +7826,28 @@
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B106">
         <v>16</v>
       </c>
       <c r="C106" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E106" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F106" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G106" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H106" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I106" s="1">
         <v>45201</v>
@@ -7883,28 +7883,28 @@
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B107">
         <v>17</v>
       </c>
       <c r="C107" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E107" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F107" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G107" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H107" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I107" s="1">
         <v>45201</v>
@@ -7941,28 +7941,28 @@
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B108">
         <v>18</v>
       </c>
       <c r="C108" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E108" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F108" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G108" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H108" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I108" s="1">
         <v>45201</v>
@@ -7998,28 +7998,28 @@
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B109">
         <v>19</v>
       </c>
       <c r="C109" t="s">
-        <v>112</v>
+        <v>421</v>
       </c>
       <c r="D109" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E109" t="s">
+        <v>409</v>
+      </c>
+      <c r="F109" t="s">
         <v>416</v>
       </c>
-      <c r="E109" t="s">
-        <v>410</v>
-      </c>
-      <c r="F109" t="s">
-        <v>417</v>
-      </c>
       <c r="G109" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H109" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I109" s="1">
         <v>45204</v>

--- a/data/duck_data.xlsx
+++ b/data/duck_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allan\Documents\DS_Projects\portfolio-deployments\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF642C0B-C00D-49CE-91E7-7D7C8172DCB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E320FAFC-A69B-49C6-A54B-B2864E45A147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8928" xr2:uid="{EF9DEEC2-186D-4161-AB80-57C24753F6AE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EF9DEEC2-186D-4161-AB80-57C24753F6AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Ducks" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="426">
   <si>
     <t>Duck</t>
   </si>
@@ -1330,6 +1330,18 @@
   </si>
   <si>
     <t>Physical Store</t>
+  </si>
+  <si>
+    <t>pink floatie car</t>
+  </si>
+  <si>
+    <t>knight single</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
   </si>
 </sst>
 </file>
@@ -1402,7 +1414,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1412,6 +1424,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1471,8 +1484,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{55715085-9AFB-4516-817F-DC3F49C2B133}" name="Table1" displayName="Table1" ref="A1:R109" totalsRowShown="0">
-  <autoFilter ref="A1:R109" xr:uid="{55715085-9AFB-4516-817F-DC3F49C2B133}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{55715085-9AFB-4516-817F-DC3F49C2B133}" name="Table1" displayName="Table1" ref="A1:R111" totalsRowShown="0">
+  <autoFilter ref="A1:R111" xr:uid="{55715085-9AFB-4516-817F-DC3F49C2B133}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R98">
     <sortCondition ref="I1:I98"/>
   </sortState>
@@ -1815,11 +1828,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28BE0B7-C424-43DE-B13E-D21D7F7285C7}">
-  <dimension ref="A1:V109"/>
+  <dimension ref="A1:V111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="88" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="88" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J99" sqref="J99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3881,7 +3894,7 @@
       </c>
       <c r="S36" s="2"/>
     </row>
-    <row r="37" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -8050,6 +8063,109 @@
       </c>
       <c r="R109">
         <v>3.5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>422</v>
+      </c>
+      <c r="B110">
+        <v>20</v>
+      </c>
+      <c r="C110" t="s">
+        <v>112</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E110" t="s">
+        <v>264</v>
+      </c>
+      <c r="F110" t="s">
+        <v>265</v>
+      </c>
+      <c r="G110" t="s">
+        <v>146</v>
+      </c>
+      <c r="H110" t="s">
+        <v>146</v>
+      </c>
+      <c r="I110" s="1">
+        <v>45236</v>
+      </c>
+      <c r="J110" s="7"/>
+      <c r="K110" s="7"/>
+      <c r="L110" s="6"/>
+      <c r="M110" t="s">
+        <v>51</v>
+      </c>
+      <c r="N110">
+        <v>1</v>
+      </c>
+      <c r="O110">
+        <v>17</v>
+      </c>
+      <c r="P110">
+        <v>1.75</v>
+      </c>
+      <c r="Q110">
+        <f>1+13/16</f>
+        <v>1.8125</v>
+      </c>
+      <c r="R110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>423</v>
+      </c>
+      <c r="B111">
+        <v>21</v>
+      </c>
+      <c r="C111" t="s">
+        <v>112</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E111" t="s">
+        <v>425</v>
+      </c>
+      <c r="F111" t="s">
+        <v>424</v>
+      </c>
+      <c r="G111" t="s">
+        <v>146</v>
+      </c>
+      <c r="H111" t="s">
+        <v>146</v>
+      </c>
+      <c r="I111" s="1">
+        <v>45236</v>
+      </c>
+      <c r="J111" s="7"/>
+      <c r="K111" s="7"/>
+      <c r="L111" s="6"/>
+      <c r="M111" t="s">
+        <v>52</v>
+      </c>
+      <c r="N111">
+        <v>1</v>
+      </c>
+      <c r="O111">
+        <v>68</v>
+      </c>
+      <c r="P111">
+        <v>3.5</v>
+      </c>
+      <c r="Q111">
+        <f>3+6/16</f>
+        <v>3.375</v>
+      </c>
+      <c r="R111">
+        <f>3+9/16</f>
+        <v>3.5625</v>
       </c>
     </row>
   </sheetData>

--- a/data/duck_data.xlsx
+++ b/data/duck_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allan\Documents\DS_Projects\portfolio-deployments\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E320FAFC-A69B-49C6-A54B-B2864E45A147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28CCD1A-839D-46BC-9087-B334D012CA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EF9DEEC2-186D-4161-AB80-57C24753F6AE}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="442">
   <si>
     <t>Duck</t>
   </si>
@@ -1212,9 +1212,6 @@
     <t>Frahnkensteen</t>
   </si>
   <si>
-    <t>Frau Blücher ⚡⚡⚡</t>
-  </si>
-  <si>
     <t>If I had to choose, I would rather have birds than airplanes</t>
   </si>
   <si>
@@ -1342,6 +1339,57 @@
   </si>
   <si>
     <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>Trex</t>
+  </si>
+  <si>
+    <t>Horned dino</t>
+  </si>
+  <si>
+    <t>quacktastic</t>
+  </si>
+  <si>
+    <t>irish</t>
+  </si>
+  <si>
+    <t>construction</t>
+  </si>
+  <si>
+    <t>ice cream</t>
+  </si>
+  <si>
+    <t>white unicorn</t>
+  </si>
+  <si>
+    <t>yellow &amp; off yellwo mini</t>
+  </si>
+  <si>
+    <t>Smithsonian Natural History Museum</t>
+  </si>
+  <si>
+    <t>Duck donuts</t>
+  </si>
+  <si>
+    <t>Doubletree by Hitlon</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>Chandler</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>Nashua</t>
+  </si>
+  <si>
+    <t>Frau Blücher  ⚡⚡⚡</t>
   </si>
 </sst>
 </file>
@@ -1414,7 +1462,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1424,16 +1472,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1470,6 +1514,9 @@
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1484,8 +1531,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{55715085-9AFB-4516-817F-DC3F49C2B133}" name="Table1" displayName="Table1" ref="A1:R111" totalsRowShown="0">
-  <autoFilter ref="A1:R111" xr:uid="{55715085-9AFB-4516-817F-DC3F49C2B133}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{55715085-9AFB-4516-817F-DC3F49C2B133}" name="Table1" displayName="Table1" ref="A1:R119" totalsRowShown="0">
+  <autoFilter ref="A1:R119" xr:uid="{55715085-9AFB-4516-817F-DC3F49C2B133}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R98">
     <sortCondition ref="I1:I98"/>
   </sortState>
@@ -1498,10 +1545,10 @@
     <tableColumn id="18" xr3:uid="{6CF5BE57-FA6C-4A82-BBEB-02BD6F0FF1A7}" name="Purchase_State"/>
     <tableColumn id="16" xr3:uid="{8F6D77DD-9950-4A0C-9650-EF78F2440AF5}" name="Purchase_Country"/>
     <tableColumn id="17" xr3:uid="{53E3F17B-A5D5-4AE9-83A1-0970087FA2AC}" name="ISO_Code"/>
-    <tableColumn id="4" xr3:uid="{3483BEC1-7940-46EA-87AB-895F2A60F5C4}" name="Date_Bought" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{DD5702CA-A5AA-48F2-A221-5B11E7770312}" name="Latitude" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{6E84405B-586B-45AE-8AAB-E75DDE55DE14}" name="Longitude" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{D54F7BD0-C645-4075-B34E-4D059919801A}" name="About Me" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{3483BEC1-7940-46EA-87AB-895F2A60F5C4}" name="Date_Bought" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{DD5702CA-A5AA-48F2-A221-5B11E7770312}" name="Latitude" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{6E84405B-586B-45AE-8AAB-E75DDE55DE14}" name="Longitude" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{D54F7BD0-C645-4075-B34E-4D059919801A}" name="About Me" dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{E6929EE2-9995-48C5-99C7-C33245F8F30B}" name="Buyer"/>
     <tableColumn id="8" xr3:uid="{291141F9-BF51-4E10-B8D7-FD40E791433E}" name="Quantity"/>
     <tableColumn id="9" xr3:uid="{B5508D8E-FAD5-4D52-8444-0DB243E6A995}" name="Total_Weight"/>
@@ -1520,7 +1567,7 @@
     <tableColumn id="1" xr3:uid="{9E64D190-0A43-40CF-AD36-FD04A662496B}" name="Cousins"/>
     <tableColumn id="2" xr3:uid="{B24B008B-4FA5-4F53-8DFF-6B5E687E43FD}" name="Description"/>
     <tableColumn id="3" xr3:uid="{D04918B6-CEB1-4249-B203-04B49B77C2DB}" name="Location bought"/>
-    <tableColumn id="4" xr3:uid="{3D940517-F53B-4DDA-9410-4146A9DBC72B}" name="Date Bought" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{3D940517-F53B-4DDA-9410-4146A9DBC72B}" name="Date Bought" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{51611A3A-347A-410D-87A5-C3B9A034AE16}" name="Fun Fact?"/>
     <tableColumn id="6" xr3:uid="{148B1608-FB51-4737-AD44-B59CA6A1087F}" name="Bought By"/>
     <tableColumn id="7" xr3:uid="{F988032F-024C-44D8-A1BB-16110E5DAE33}" name="Catch Phrase"/>
@@ -1828,19 +1875,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28BE0B7-C424-43DE-B13E-D21D7F7285C7}">
-  <dimension ref="A1:V111"/>
+  <dimension ref="A1:V119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="88" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J99" sqref="J99"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="67" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
@@ -1978,7 +2025,7 @@
         <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D3" t="s">
         <v>115</v>
@@ -2091,7 +2138,7 @@
         <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D5" t="s">
         <v>125</v>
@@ -2148,7 +2195,7 @@
         <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -2205,7 +2252,7 @@
         <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D7" t="s">
         <v>109</v>
@@ -2261,7 +2308,7 @@
         <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D8" t="s">
         <v>109</v>
@@ -2375,7 +2422,7 @@
         <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D10" t="s">
         <v>122</v>
@@ -2428,7 +2475,7 @@
         <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D11" t="s">
         <v>127</v>
@@ -2485,7 +2532,7 @@
         <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D12" t="s">
         <v>120</v>
@@ -2542,7 +2589,7 @@
         <v>226</v>
       </c>
       <c r="C13" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D13" t="s">
         <v>129</v>
@@ -2598,7 +2645,7 @@
         <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D14" t="s">
         <v>128</v>
@@ -2607,7 +2654,7 @@
         <v>151</v>
       </c>
       <c r="F14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G14" t="s">
         <v>60</v>
@@ -2655,7 +2702,7 @@
         <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D15" t="s">
         <v>120</v>
@@ -2664,7 +2711,7 @@
         <v>166</v>
       </c>
       <c r="F15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G15" t="s">
         <v>149</v>
@@ -2825,7 +2872,7 @@
         <v>134</v>
       </c>
       <c r="C18" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D18" t="s">
         <v>119</v>
@@ -2882,7 +2929,7 @@
         <v>209</v>
       </c>
       <c r="C19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D19" t="s">
         <v>43</v>
@@ -3108,7 +3155,7 @@
         <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D23" t="s">
         <v>113</v>
@@ -3117,7 +3164,7 @@
         <v>148</v>
       </c>
       <c r="F23" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G23" t="s">
         <v>42</v>
@@ -3165,7 +3212,7 @@
         <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D24" t="s">
         <v>113</v>
@@ -3174,7 +3221,7 @@
         <v>148</v>
       </c>
       <c r="F24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G24" t="s">
         <v>42</v>
@@ -3222,7 +3269,7 @@
         <v>66</v>
       </c>
       <c r="C25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D25" t="s">
         <v>113</v>
@@ -3231,7 +3278,7 @@
         <v>148</v>
       </c>
       <c r="F25" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G25" t="s">
         <v>42</v>
@@ -3278,7 +3325,7 @@
         <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D26" t="s">
         <v>130</v>
@@ -3287,7 +3334,7 @@
         <v>152</v>
       </c>
       <c r="F26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G26" t="s">
         <v>42</v>
@@ -3335,7 +3382,7 @@
         <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D27" t="s">
         <v>113</v>
@@ -3344,7 +3391,7 @@
         <v>148</v>
       </c>
       <c r="F27" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G27" t="s">
         <v>42</v>
@@ -3448,7 +3495,7 @@
         <v>92</v>
       </c>
       <c r="C29" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D29" t="s">
         <v>114</v>
@@ -3457,7 +3504,7 @@
         <v>41</v>
       </c>
       <c r="F29" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G29" t="s">
         <v>147</v>
@@ -3562,7 +3609,7 @@
         <v>216</v>
       </c>
       <c r="C31" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D31" t="s">
         <v>118</v>
@@ -3618,7 +3665,7 @@
         <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D32" t="s">
         <v>124</v>
@@ -3675,7 +3722,7 @@
         <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D33" t="s">
         <v>124</v>
@@ -3788,7 +3835,7 @@
         <v>87</v>
       </c>
       <c r="C35" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D35" t="s">
         <v>116</v>
@@ -3827,13 +3874,15 @@
         <v>8</v>
       </c>
       <c r="P35">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="Q35">
-        <v>3.6</v>
+        <f>1+7/16</f>
+        <v>1.4375</v>
       </c>
       <c r="R35">
-        <v>3.5</v>
+        <f>1+6/16</f>
+        <v>1.375</v>
       </c>
       <c r="S35" s="2"/>
     </row>
@@ -4128,7 +4177,7 @@
         <v>238</v>
       </c>
       <c r="C41" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>230</v>
@@ -4184,7 +4233,7 @@
         <v>239</v>
       </c>
       <c r="C42" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>230</v>
@@ -4240,7 +4289,7 @@
         <v>233</v>
       </c>
       <c r="C43" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>230</v>
@@ -4296,7 +4345,7 @@
         <v>234</v>
       </c>
       <c r="C44" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>230</v>
@@ -4352,7 +4401,7 @@
         <v>355</v>
       </c>
       <c r="C45" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>249</v>
@@ -4408,7 +4457,7 @@
         <v>253</v>
       </c>
       <c r="C46" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>249</v>
@@ -4435,7 +4484,7 @@
         <v>-72.386257999999998</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M46" t="s">
         <v>50</v>
@@ -4464,7 +4513,7 @@
         <v>254</v>
       </c>
       <c r="C47" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>249</v>
@@ -4520,7 +4569,7 @@
         <v>21</v>
       </c>
       <c r="C48" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>249</v>
@@ -4576,7 +4625,7 @@
         <v>357</v>
       </c>
       <c r="C49" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>249</v>
@@ -4634,7 +4683,7 @@
         <v>376</v>
       </c>
       <c r="C50" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>249</v>
@@ -4661,7 +4710,7 @@
         <v>-72.386257999999998</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M50" t="s">
         <v>54</v>
@@ -4691,7 +4740,7 @@
         <v>356</v>
       </c>
       <c r="C51" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>249</v>
@@ -4750,7 +4799,7 @@
         <v>271</v>
       </c>
       <c r="C52" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>262</v>
@@ -4777,7 +4826,7 @@
         <v>-97.761235999999997</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M52" t="s">
         <v>51</v>
@@ -4806,7 +4855,7 @@
         <v>22</v>
       </c>
       <c r="C53" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>250</v>
@@ -4862,7 +4911,7 @@
         <v>300</v>
       </c>
       <c r="C54" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>250</v>
@@ -4918,7 +4967,7 @@
         <v>255</v>
       </c>
       <c r="C55" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>250</v>
@@ -4974,7 +5023,7 @@
         <v>358</v>
       </c>
       <c r="C56" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>250</v>
@@ -5001,7 +5050,7 @@
         <v>-71.034631000000005</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M56" t="s">
         <v>50</v>
@@ -5030,7 +5079,7 @@
         <v>266</v>
       </c>
       <c r="C57" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>261</v>
@@ -5113,7 +5162,7 @@
         <v>-75.131495999999999</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M58" t="s">
         <v>50</v>
@@ -5198,7 +5247,7 @@
         <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>277</v>
@@ -5225,7 +5274,7 @@
         <v>-71.047290735065801</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M60" t="s">
         <v>54</v>
@@ -5255,7 +5304,7 @@
         <v>336</v>
       </c>
       <c r="C61" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>276</v>
@@ -5282,7 +5331,7 @@
         <v>-71.213526000000002</v>
       </c>
       <c r="L61" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M61" t="s">
         <v>50</v>
@@ -5313,7 +5362,7 @@
         <v>363</v>
       </c>
       <c r="C62" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>276</v>
@@ -5340,7 +5389,7 @@
         <v>-71.213526000000002</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="M62" t="s">
         <v>50</v>
@@ -5369,7 +5418,7 @@
         <v>375</v>
       </c>
       <c r="C63" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>315</v>
@@ -5424,10 +5473,10 @@
         <v>281</v>
       </c>
       <c r="B64" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C64" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>250</v>
@@ -5484,7 +5533,7 @@
         <v>359</v>
       </c>
       <c r="C65" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>250</v>
@@ -5542,7 +5591,7 @@
         <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>299</v>
@@ -5569,7 +5618,7 @@
         <v>-71.185913999999997</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M66" t="s">
         <v>50</v>
@@ -5599,7 +5648,7 @@
         <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>299</v>
@@ -5656,7 +5705,7 @@
         <v>377</v>
       </c>
       <c r="C68" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>299</v>
@@ -5683,7 +5732,7 @@
         <v>-71.185913999999997</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M68" t="s">
         <v>50</v>
@@ -5713,7 +5762,7 @@
         <v>362</v>
       </c>
       <c r="C69" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>299</v>
@@ -5770,7 +5819,7 @@
         <v>364</v>
       </c>
       <c r="C70" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>299</v>
@@ -5829,7 +5878,7 @@
         <v>374</v>
       </c>
       <c r="C71" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>295</v>
@@ -5885,7 +5934,7 @@
         <v>361</v>
       </c>
       <c r="C72" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>294</v>
@@ -5894,7 +5943,7 @@
         <v>296</v>
       </c>
       <c r="F72" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G72" t="s">
         <v>293</v>
@@ -5941,7 +5990,7 @@
         <v>348</v>
       </c>
       <c r="C73" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>297</v>
@@ -5950,7 +5999,7 @@
         <v>287</v>
       </c>
       <c r="F73" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G73" t="s">
         <v>293</v>
@@ -5998,7 +6047,7 @@
         <v>351</v>
       </c>
       <c r="C74" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>297</v>
@@ -6007,7 +6056,7 @@
         <v>287</v>
       </c>
       <c r="F74" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G74" t="s">
         <v>293</v>
@@ -6055,7 +6104,7 @@
         <v>378</v>
       </c>
       <c r="C75" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>297</v>
@@ -6064,7 +6113,7 @@
         <v>287</v>
       </c>
       <c r="F75" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G75" t="s">
         <v>293</v>
@@ -6112,7 +6161,7 @@
         <v>354</v>
       </c>
       <c r="C76" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>297</v>
@@ -6121,7 +6170,7 @@
         <v>287</v>
       </c>
       <c r="F76" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G76" t="s">
         <v>293</v>
@@ -6170,7 +6219,7 @@
         <v>368</v>
       </c>
       <c r="C77" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>298</v>
@@ -6179,7 +6228,7 @@
         <v>283</v>
       </c>
       <c r="F77" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G77" t="s">
         <v>293</v>
@@ -6227,7 +6276,7 @@
         <v>302</v>
       </c>
       <c r="C78" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>298</v>
@@ -6236,7 +6285,7 @@
         <v>283</v>
       </c>
       <c r="F78" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G78" t="s">
         <v>293</v>
@@ -6283,7 +6332,7 @@
         <v>370</v>
       </c>
       <c r="C79" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>298</v>
@@ -6292,7 +6341,7 @@
         <v>283</v>
       </c>
       <c r="F79" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G79" t="s">
         <v>293</v>
@@ -6342,7 +6391,7 @@
         <v>5</v>
       </c>
       <c r="C80" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>312</v>
@@ -6401,7 +6450,7 @@
         <v>352</v>
       </c>
       <c r="C81" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>312</v>
@@ -6459,7 +6508,7 @@
         <v>6</v>
       </c>
       <c r="C82" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>312</v>
@@ -6517,7 +6566,7 @@
         <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>312</v>
@@ -6576,7 +6625,7 @@
         <v>367</v>
       </c>
       <c r="C84" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>313</v>
@@ -6631,10 +6680,10 @@
         <v>304</v>
       </c>
       <c r="B85" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C85" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>313</v>
@@ -6691,7 +6740,7 @@
         <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>319</v>
@@ -6747,7 +6796,7 @@
         <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>299</v>
@@ -6805,7 +6854,7 @@
         <v>365</v>
       </c>
       <c r="C88" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>334</v>
@@ -6863,7 +6912,7 @@
         <v>379</v>
       </c>
       <c r="C89" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>329</v>
@@ -6922,7 +6971,7 @@
         <v>380</v>
       </c>
       <c r="C90" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>330</v>
@@ -6978,7 +7027,7 @@
         <v>369</v>
       </c>
       <c r="C91" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>330</v>
@@ -7036,7 +7085,7 @@
         <v>360</v>
       </c>
       <c r="C92" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>330</v>
@@ -7094,7 +7143,7 @@
         <v>353</v>
       </c>
       <c r="C93" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>330</v>
@@ -7151,7 +7200,7 @@
         <v>366</v>
       </c>
       <c r="C94" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>343</v>
@@ -7209,7 +7258,7 @@
         <v>349</v>
       </c>
       <c r="C95" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>342</v>
@@ -7236,7 +7285,7 @@
         <v>-93.166926000000004</v>
       </c>
       <c r="L95" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M95" t="s">
         <v>346</v>
@@ -7267,7 +7316,7 @@
         <v>381</v>
       </c>
       <c r="C96" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>230</v>
@@ -7294,7 +7343,7 @@
         <v>-77.114897400000004</v>
       </c>
       <c r="L96" s="6" t="s">
-        <v>382</v>
+        <v>441</v>
       </c>
       <c r="M96" t="s">
         <v>50</v>
@@ -7324,7 +7373,7 @@
         <v>20</v>
       </c>
       <c r="C97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>230</v>
@@ -7381,7 +7430,7 @@
         <v>350</v>
       </c>
       <c r="C98" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>230</v>
@@ -7432,22 +7481,22 @@
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B99" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C99" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D99" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E99" t="s">
         <v>402</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>403</v>
-      </c>
-      <c r="F99" t="s">
-        <v>404</v>
       </c>
       <c r="G99" t="s">
         <v>146</v>
@@ -7488,22 +7537,22 @@
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B100">
         <v>10</v>
       </c>
       <c r="C100" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>329</v>
       </c>
       <c r="E100" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F100" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G100" t="s">
         <v>146</v>
@@ -7547,22 +7596,22 @@
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B101">
         <v>11</v>
       </c>
       <c r="C101" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>329</v>
       </c>
       <c r="E101" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F101" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G101" t="s">
         <v>146</v>
@@ -7605,22 +7654,22 @@
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B102">
         <v>12</v>
       </c>
       <c r="C102" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>329</v>
       </c>
       <c r="E102" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F102" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G102" t="s">
         <v>146</v>
@@ -7663,22 +7712,22 @@
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B103">
         <v>13</v>
       </c>
       <c r="C103" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>329</v>
       </c>
       <c r="E103" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F103" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G103" t="s">
         <v>146</v>
@@ -7722,19 +7771,19 @@
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B104">
         <v>14</v>
       </c>
       <c r="C104" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>299</v>
       </c>
       <c r="E104" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F104" t="s">
         <v>235</v>
@@ -7758,7 +7807,7 @@
         <v>41</v>
       </c>
       <c r="M104" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N104">
         <v>1</v>
@@ -7780,22 +7829,22 @@
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B105">
         <v>15</v>
       </c>
       <c r="C105" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E105" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F105" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G105" t="s">
         <v>146</v>
@@ -7816,7 +7865,7 @@
         <v>42</v>
       </c>
       <c r="M105" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -7839,22 +7888,22 @@
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B106">
         <v>16</v>
       </c>
       <c r="C106" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>329</v>
       </c>
       <c r="E106" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F106" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G106" t="s">
         <v>146</v>
@@ -7896,22 +7945,22 @@
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B107">
         <v>17</v>
       </c>
       <c r="C107" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>329</v>
       </c>
       <c r="E107" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F107" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G107" t="s">
         <v>146</v>
@@ -7954,22 +8003,22 @@
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B108">
         <v>18</v>
       </c>
       <c r="C108" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>329</v>
       </c>
       <c r="E108" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F108" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G108" t="s">
         <v>146</v>
@@ -8011,22 +8060,22 @@
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B109">
         <v>19</v>
       </c>
       <c r="C109" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D109" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E109" t="s">
+        <v>408</v>
+      </c>
+      <c r="F109" t="s">
         <v>415</v>
-      </c>
-      <c r="E109" t="s">
-        <v>409</v>
-      </c>
-      <c r="F109" t="s">
-        <v>416</v>
       </c>
       <c r="G109" t="s">
         <v>146</v>
@@ -8067,7 +8116,7 @@
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B110">
         <v>20</v>
@@ -8093,9 +8142,15 @@
       <c r="I110" s="1">
         <v>45236</v>
       </c>
-      <c r="J110" s="7"/>
-      <c r="K110" s="7"/>
-      <c r="L110" s="6"/>
+      <c r="J110" s="4">
+        <v>30.627040999999998</v>
+      </c>
+      <c r="K110" s="4">
+        <v>-97.812154000000007</v>
+      </c>
+      <c r="L110" s="6">
+        <v>46</v>
+      </c>
       <c r="M110" t="s">
         <v>51</v>
       </c>
@@ -8118,7 +8173,7 @@
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B111">
         <v>21</v>
@@ -8130,10 +8185,10 @@
         <v>117</v>
       </c>
       <c r="E111" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F111" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G111" t="s">
         <v>146</v>
@@ -8144,9 +8199,15 @@
       <c r="I111" s="1">
         <v>45236</v>
       </c>
-      <c r="J111" s="7"/>
-      <c r="K111" s="7"/>
-      <c r="L111" s="6"/>
+      <c r="J111" s="4">
+        <v>34.027388999999999</v>
+      </c>
+      <c r="K111" s="4">
+        <v>-118.28542899999999</v>
+      </c>
+      <c r="L111" s="6">
+        <v>46</v>
+      </c>
       <c r="M111" t="s">
         <v>52</v>
       </c>
@@ -8166,6 +8227,461 @@
       <c r="R111">
         <f>3+9/16</f>
         <v>3.5625</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>425</v>
+      </c>
+      <c r="B112">
+        <v>22</v>
+      </c>
+      <c r="C112" t="s">
+        <v>420</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E112" t="s">
+        <v>133</v>
+      </c>
+      <c r="F112" t="s">
+        <v>26</v>
+      </c>
+      <c r="G112" t="s">
+        <v>146</v>
+      </c>
+      <c r="H112" t="s">
+        <v>146</v>
+      </c>
+      <c r="I112" s="1">
+        <v>45346</v>
+      </c>
+      <c r="J112" s="4">
+        <v>38.892167999999998</v>
+      </c>
+      <c r="K112" s="4">
+        <v>-77.025794000000005</v>
+      </c>
+      <c r="L112" s="6">
+        <v>46</v>
+      </c>
+      <c r="M112" t="s">
+        <v>50</v>
+      </c>
+      <c r="N112">
+        <v>1</v>
+      </c>
+      <c r="O112">
+        <v>65</v>
+      </c>
+      <c r="P112">
+        <v>3.5</v>
+      </c>
+      <c r="Q112">
+        <f>3+3/16</f>
+        <v>3.1875</v>
+      </c>
+      <c r="R112">
+        <v>4.1875</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>426</v>
+      </c>
+      <c r="B113">
+        <v>23</v>
+      </c>
+      <c r="C113" t="s">
+        <v>420</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E113" t="s">
+        <v>133</v>
+      </c>
+      <c r="F113" t="s">
+        <v>26</v>
+      </c>
+      <c r="G113" t="s">
+        <v>146</v>
+      </c>
+      <c r="H113" t="s">
+        <v>146</v>
+      </c>
+      <c r="I113" s="1">
+        <v>45346</v>
+      </c>
+      <c r="J113" s="4">
+        <v>38.892167999999998</v>
+      </c>
+      <c r="K113" s="4">
+        <v>-77.025794000000005</v>
+      </c>
+      <c r="L113" s="6">
+        <v>46</v>
+      </c>
+      <c r="M113" t="s">
+        <v>50</v>
+      </c>
+      <c r="N113">
+        <v>1</v>
+      </c>
+      <c r="O113">
+        <v>64</v>
+      </c>
+      <c r="P113">
+        <v>3.25</v>
+      </c>
+      <c r="Q113">
+        <v>3.1875</v>
+      </c>
+      <c r="R113">
+        <f>4+14/16</f>
+        <v>4.875</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>427</v>
+      </c>
+      <c r="B114">
+        <v>24</v>
+      </c>
+      <c r="C114" t="s">
+        <v>420</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E114" t="s">
+        <v>437</v>
+      </c>
+      <c r="F114" t="s">
+        <v>438</v>
+      </c>
+      <c r="G114" t="s">
+        <v>146</v>
+      </c>
+      <c r="H114" t="s">
+        <v>146</v>
+      </c>
+      <c r="I114" s="1">
+        <v>45355</v>
+      </c>
+      <c r="J114" s="4">
+        <v>33.246605000000002</v>
+      </c>
+      <c r="K114" s="4">
+        <v>-111.84272</v>
+      </c>
+      <c r="L114" s="6">
+        <v>46</v>
+      </c>
+      <c r="M114" t="s">
+        <v>50</v>
+      </c>
+      <c r="N114">
+        <v>1</v>
+      </c>
+      <c r="O114">
+        <v>18</v>
+      </c>
+      <c r="P114">
+        <f>2+13/16</f>
+        <v>2.8125</v>
+      </c>
+      <c r="Q114">
+        <v>2</v>
+      </c>
+      <c r="R114">
+        <f>2+1/16</f>
+        <v>2.0625</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>428</v>
+      </c>
+      <c r="B115">
+        <v>25</v>
+      </c>
+      <c r="C115" t="s">
+        <v>420</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E115" t="s">
+        <v>436</v>
+      </c>
+      <c r="F115" t="s">
+        <v>439</v>
+      </c>
+      <c r="G115" t="s">
+        <v>146</v>
+      </c>
+      <c r="H115" t="s">
+        <v>146</v>
+      </c>
+      <c r="I115" s="1">
+        <v>45353</v>
+      </c>
+      <c r="J115" s="4">
+        <v>33.980536999999998</v>
+      </c>
+      <c r="K115" s="4">
+        <v>-84.424716000000004</v>
+      </c>
+      <c r="L115" s="6">
+        <v>46</v>
+      </c>
+      <c r="M115" t="s">
+        <v>50</v>
+      </c>
+      <c r="N115">
+        <v>1</v>
+      </c>
+      <c r="O115">
+        <v>16</v>
+      </c>
+      <c r="P115">
+        <v>2</v>
+      </c>
+      <c r="Q115">
+        <v>2.875</v>
+      </c>
+      <c r="R115">
+        <v>2.0625</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>429</v>
+      </c>
+      <c r="B116">
+        <v>26</v>
+      </c>
+      <c r="C116" t="s">
+        <v>420</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E116" t="s">
+        <v>437</v>
+      </c>
+      <c r="F116" t="s">
+        <v>438</v>
+      </c>
+      <c r="G116" t="s">
+        <v>146</v>
+      </c>
+      <c r="H116" t="s">
+        <v>146</v>
+      </c>
+      <c r="I116" s="1">
+        <v>45355</v>
+      </c>
+      <c r="J116" s="4">
+        <v>33.246605000000002</v>
+      </c>
+      <c r="K116" s="4">
+        <v>-111.84272</v>
+      </c>
+      <c r="L116" s="6">
+        <v>46</v>
+      </c>
+      <c r="M116" t="s">
+        <v>50</v>
+      </c>
+      <c r="N116">
+        <v>1</v>
+      </c>
+      <c r="O116">
+        <v>18</v>
+      </c>
+      <c r="P116">
+        <v>2.25</v>
+      </c>
+      <c r="Q116">
+        <v>2.875</v>
+      </c>
+      <c r="R116">
+        <v>2.0625</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>430</v>
+      </c>
+      <c r="B117">
+        <v>27</v>
+      </c>
+      <c r="C117" t="s">
+        <v>420</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E117" t="s">
+        <v>327</v>
+      </c>
+      <c r="F117" t="s">
+        <v>163</v>
+      </c>
+      <c r="G117" t="s">
+        <v>146</v>
+      </c>
+      <c r="H117" t="s">
+        <v>146</v>
+      </c>
+      <c r="I117" s="1">
+        <v>45311</v>
+      </c>
+      <c r="J117" s="4">
+        <v>39.056086162518199</v>
+      </c>
+      <c r="K117" s="4">
+        <v>-77.114897400000004</v>
+      </c>
+      <c r="L117" s="6">
+        <v>46</v>
+      </c>
+      <c r="M117" t="s">
+        <v>50</v>
+      </c>
+      <c r="N117">
+        <v>1</v>
+      </c>
+      <c r="O117">
+        <v>28</v>
+      </c>
+      <c r="P117">
+        <v>2.5</v>
+      </c>
+      <c r="Q117">
+        <f>2+6/16</f>
+        <v>2.375</v>
+      </c>
+      <c r="R117">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>431</v>
+      </c>
+      <c r="B118">
+        <v>28</v>
+      </c>
+      <c r="C118" t="s">
+        <v>420</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E118" t="s">
+        <v>327</v>
+      </c>
+      <c r="F118" t="s">
+        <v>163</v>
+      </c>
+      <c r="G118" t="s">
+        <v>146</v>
+      </c>
+      <c r="H118" t="s">
+        <v>146</v>
+      </c>
+      <c r="I118" s="1">
+        <v>45311</v>
+      </c>
+      <c r="J118" s="4">
+        <v>39.056086162518199</v>
+      </c>
+      <c r="K118" s="4">
+        <v>-77.114897400000004</v>
+      </c>
+      <c r="L118" s="6">
+        <v>46</v>
+      </c>
+      <c r="M118" t="s">
+        <v>50</v>
+      </c>
+      <c r="N118">
+        <v>1</v>
+      </c>
+      <c r="O118">
+        <v>28</v>
+      </c>
+      <c r="P118">
+        <v>2.75</v>
+      </c>
+      <c r="Q118">
+        <v>2.375</v>
+      </c>
+      <c r="R118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>432</v>
+      </c>
+      <c r="B119">
+        <v>29</v>
+      </c>
+      <c r="C119" t="s">
+        <v>420</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E119" t="s">
+        <v>440</v>
+      </c>
+      <c r="F119" t="s">
+        <v>165</v>
+      </c>
+      <c r="G119" t="s">
+        <v>146</v>
+      </c>
+      <c r="H119" t="s">
+        <v>146</v>
+      </c>
+      <c r="I119" s="1">
+        <v>45270</v>
+      </c>
+      <c r="J119" s="4">
+        <v>42.787076999999996</v>
+      </c>
+      <c r="K119" s="4">
+        <v>-71.503960000000006</v>
+      </c>
+      <c r="L119" s="6">
+        <v>46</v>
+      </c>
+      <c r="M119" t="s">
+        <v>50</v>
+      </c>
+      <c r="N119">
+        <v>2</v>
+      </c>
+      <c r="O119">
+        <v>8</v>
+      </c>
+      <c r="P119">
+        <v>1.25</v>
+      </c>
+      <c r="Q119">
+        <f>1+7/16</f>
+        <v>1.4375</v>
+      </c>
+      <c r="R119">
+        <f>1+6/16</f>
+        <v>1.375</v>
       </c>
     </row>
   </sheetData>

--- a/data/duck_data.xlsx
+++ b/data/duck_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allan\Documents\DS_Projects\portfolio-deployments\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28CCD1A-839D-46BC-9087-B334D012CA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E6EEA9-2D26-4D15-B9BC-EDEDA8AA5788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EF9DEEC2-186D-4161-AB80-57C24753F6AE}"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15750" xr2:uid="{EF9DEEC2-186D-4161-AB80-57C24753F6AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Ducks" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="454">
   <si>
     <t>Duck</t>
   </si>
@@ -1390,6 +1390,42 @@
   </si>
   <si>
     <t>Frau Blücher  ⚡⚡⚡</t>
+  </si>
+  <si>
+    <t>shark</t>
+  </si>
+  <si>
+    <t>beach sunglass blue</t>
+  </si>
+  <si>
+    <t>Anchors</t>
+  </si>
+  <si>
+    <t>Octopi</t>
+  </si>
+  <si>
+    <t>Captain w glasses</t>
+  </si>
+  <si>
+    <t>Bucky's</t>
+  </si>
+  <si>
+    <t>Universal Studios</t>
+  </si>
+  <si>
+    <t>Derek &amp; Cassi</t>
+  </si>
+  <si>
+    <t>Orlando</t>
+  </si>
+  <si>
+    <t>The Boathouse</t>
+  </si>
+  <si>
+    <t>Lake Buena Vista</t>
+  </si>
+  <si>
+    <t>Buc-ee's</t>
   </si>
 </sst>
 </file>
@@ -1479,6 +1515,9 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1514,9 +1553,6 @@
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1531,8 +1567,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{55715085-9AFB-4516-817F-DC3F49C2B133}" name="Table1" displayName="Table1" ref="A1:R119" totalsRowShown="0">
-  <autoFilter ref="A1:R119" xr:uid="{55715085-9AFB-4516-817F-DC3F49C2B133}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{55715085-9AFB-4516-817F-DC3F49C2B133}" name="Table1" displayName="Table1" ref="A1:R126" totalsRowShown="0">
+  <autoFilter ref="A1:R126" xr:uid="{55715085-9AFB-4516-817F-DC3F49C2B133}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R98">
     <sortCondition ref="I1:I98"/>
   </sortState>
@@ -1545,10 +1581,10 @@
     <tableColumn id="18" xr3:uid="{6CF5BE57-FA6C-4A82-BBEB-02BD6F0FF1A7}" name="Purchase_State"/>
     <tableColumn id="16" xr3:uid="{8F6D77DD-9950-4A0C-9650-EF78F2440AF5}" name="Purchase_Country"/>
     <tableColumn id="17" xr3:uid="{53E3F17B-A5D5-4AE9-83A1-0970087FA2AC}" name="ISO_Code"/>
-    <tableColumn id="4" xr3:uid="{3483BEC1-7940-46EA-87AB-895F2A60F5C4}" name="Date_Bought" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{DD5702CA-A5AA-48F2-A221-5B11E7770312}" name="Latitude" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{6E84405B-586B-45AE-8AAB-E75DDE55DE14}" name="Longitude" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{D54F7BD0-C645-4075-B34E-4D059919801A}" name="About Me" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{3483BEC1-7940-46EA-87AB-895F2A60F5C4}" name="Date_Bought" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{DD5702CA-A5AA-48F2-A221-5B11E7770312}" name="Latitude" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{6E84405B-586B-45AE-8AAB-E75DDE55DE14}" name="Longitude" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{D54F7BD0-C645-4075-B34E-4D059919801A}" name="About Me" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{E6929EE2-9995-48C5-99C7-C33245F8F30B}" name="Buyer"/>
     <tableColumn id="8" xr3:uid="{291141F9-BF51-4E10-B8D7-FD40E791433E}" name="Quantity"/>
     <tableColumn id="9" xr3:uid="{B5508D8E-FAD5-4D52-8444-0DB243E6A995}" name="Total_Weight"/>
@@ -1567,7 +1603,7 @@
     <tableColumn id="1" xr3:uid="{9E64D190-0A43-40CF-AD36-FD04A662496B}" name="Cousins"/>
     <tableColumn id="2" xr3:uid="{B24B008B-4FA5-4F53-8DFF-6B5E687E43FD}" name="Description"/>
     <tableColumn id="3" xr3:uid="{D04918B6-CEB1-4249-B203-04B49B77C2DB}" name="Location bought"/>
-    <tableColumn id="4" xr3:uid="{3D940517-F53B-4DDA-9410-4146A9DBC72B}" name="Date Bought" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{3D940517-F53B-4DDA-9410-4146A9DBC72B}" name="Date Bought" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{51611A3A-347A-410D-87A5-C3B9A034AE16}" name="Fun Fact?"/>
     <tableColumn id="6" xr3:uid="{148B1608-FB51-4737-AD44-B59CA6A1087F}" name="Bought By"/>
     <tableColumn id="7" xr3:uid="{F988032F-024C-44D8-A1BB-16110E5DAE33}" name="Catch Phrase"/>
@@ -1579,9 +1615,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1619,7 +1655,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1725,7 +1761,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1867,7 +1903,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1875,11 +1911,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28BE0B7-C424-43DE-B13E-D21D7F7285C7}">
-  <dimension ref="A1:V119"/>
+  <dimension ref="A1:V126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="67" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="67" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C108" sqref="C108"/>
+      <selection pane="topRight" activeCell="L110" sqref="L110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1888,15 +1924,15 @@
     <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="39.88671875" customWidth="1"/>
-    <col min="13" max="13" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.6640625" bestFit="1" customWidth="1"/>
@@ -8682,6 +8718,412 @@
       <c r="R119">
         <f>1+6/16</f>
         <v>1.375</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>442</v>
+      </c>
+      <c r="B120">
+        <v>30</v>
+      </c>
+      <c r="C120" t="s">
+        <v>420</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E120" t="s">
+        <v>327</v>
+      </c>
+      <c r="F120" t="s">
+        <v>163</v>
+      </c>
+      <c r="G120" t="s">
+        <v>146</v>
+      </c>
+      <c r="H120" t="s">
+        <v>146</v>
+      </c>
+      <c r="I120" s="1">
+        <v>45383</v>
+      </c>
+      <c r="J120" s="4">
+        <v>39.056086162518199</v>
+      </c>
+      <c r="K120" s="4">
+        <v>-77.114897400000004</v>
+      </c>
+      <c r="L120" s="6">
+        <v>46</v>
+      </c>
+      <c r="M120" t="s">
+        <v>50</v>
+      </c>
+      <c r="N120">
+        <v>1</v>
+      </c>
+      <c r="O120">
+        <v>28</v>
+      </c>
+      <c r="P120">
+        <f>2+10/16</f>
+        <v>2.625</v>
+      </c>
+      <c r="Q120">
+        <v>2.25</v>
+      </c>
+      <c r="R120">
+        <f>2+15/16</f>
+        <v>2.9375</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>443</v>
+      </c>
+      <c r="B121">
+        <v>31</v>
+      </c>
+      <c r="C121" t="s">
+        <v>420</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E121" t="s">
+        <v>327</v>
+      </c>
+      <c r="F121" t="s">
+        <v>163</v>
+      </c>
+      <c r="G121" t="s">
+        <v>146</v>
+      </c>
+      <c r="H121" t="s">
+        <v>146</v>
+      </c>
+      <c r="I121" s="1">
+        <v>45383</v>
+      </c>
+      <c r="J121" s="4">
+        <v>39.056086162518199</v>
+      </c>
+      <c r="K121" s="4">
+        <v>-77.114897400000004</v>
+      </c>
+      <c r="L121" s="6">
+        <v>47</v>
+      </c>
+      <c r="M121" t="s">
+        <v>50</v>
+      </c>
+      <c r="N121">
+        <v>1</v>
+      </c>
+      <c r="O121">
+        <v>27</v>
+      </c>
+      <c r="P121">
+        <v>2.25</v>
+      </c>
+      <c r="Q121">
+        <f>2+3/16</f>
+        <v>2.1875</v>
+      </c>
+      <c r="R121">
+        <f>2+6/16</f>
+        <v>2.375</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>444</v>
+      </c>
+      <c r="B122">
+        <v>32</v>
+      </c>
+      <c r="C122" t="s">
+        <v>420</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E122" t="s">
+        <v>452</v>
+      </c>
+      <c r="F122" t="s">
+        <v>167</v>
+      </c>
+      <c r="G122" t="s">
+        <v>146</v>
+      </c>
+      <c r="H122" t="s">
+        <v>146</v>
+      </c>
+      <c r="I122" s="1">
+        <v>45407</v>
+      </c>
+      <c r="J122" s="4">
+        <v>28.371808918683801</v>
+      </c>
+      <c r="K122" s="4">
+        <v>-81.517879136438097</v>
+      </c>
+      <c r="L122" s="6">
+        <v>48</v>
+      </c>
+      <c r="M122" t="s">
+        <v>50</v>
+      </c>
+      <c r="N122">
+        <v>1</v>
+      </c>
+      <c r="O122">
+        <v>18</v>
+      </c>
+      <c r="P122">
+        <v>2</v>
+      </c>
+      <c r="Q122">
+        <f>1+10/16</f>
+        <v>1.625</v>
+      </c>
+      <c r="R122">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>445</v>
+      </c>
+      <c r="B123">
+        <v>33</v>
+      </c>
+      <c r="C123" t="s">
+        <v>131</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E123" t="s">
+        <v>450</v>
+      </c>
+      <c r="F123" t="s">
+        <v>167</v>
+      </c>
+      <c r="G123" t="s">
+        <v>146</v>
+      </c>
+      <c r="H123" t="s">
+        <v>146</v>
+      </c>
+      <c r="I123" s="1">
+        <v>45403</v>
+      </c>
+      <c r="J123" s="4">
+        <v>28.4809629890139</v>
+      </c>
+      <c r="K123" s="4">
+        <v>-81.467406691372901</v>
+      </c>
+      <c r="L123" s="6">
+        <v>49</v>
+      </c>
+      <c r="M123" t="s">
+        <v>50</v>
+      </c>
+      <c r="N123">
+        <v>2</v>
+      </c>
+      <c r="O123">
+        <v>35</v>
+      </c>
+      <c r="P123">
+        <f>1+10/16</f>
+        <v>1.625</v>
+      </c>
+      <c r="Q123">
+        <f>2+2/16</f>
+        <v>2.125</v>
+      </c>
+      <c r="R123">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>241</v>
+      </c>
+      <c r="B124">
+        <v>34</v>
+      </c>
+      <c r="C124" t="s">
+        <v>131</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E124" t="s">
+        <v>450</v>
+      </c>
+      <c r="F124" t="s">
+        <v>167</v>
+      </c>
+      <c r="G124" t="s">
+        <v>146</v>
+      </c>
+      <c r="H124" t="s">
+        <v>146</v>
+      </c>
+      <c r="I124" s="1">
+        <v>45403</v>
+      </c>
+      <c r="J124" s="4">
+        <v>28.4809629890139</v>
+      </c>
+      <c r="K124" s="4">
+        <v>-81.467406691372901</v>
+      </c>
+      <c r="L124" s="6">
+        <v>50</v>
+      </c>
+      <c r="M124" t="s">
+        <v>50</v>
+      </c>
+      <c r="N124">
+        <v>1</v>
+      </c>
+      <c r="O124">
+        <v>15</v>
+      </c>
+      <c r="P124">
+        <f>2+5/16</f>
+        <v>2.3125</v>
+      </c>
+      <c r="Q124">
+        <f>2+2/16</f>
+        <v>2.125</v>
+      </c>
+      <c r="R124">
+        <f>1+14/16</f>
+        <v>1.875</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>446</v>
+      </c>
+      <c r="B125">
+        <v>35</v>
+      </c>
+      <c r="C125" t="s">
+        <v>420</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E125" t="s">
+        <v>450</v>
+      </c>
+      <c r="F125" t="s">
+        <v>167</v>
+      </c>
+      <c r="G125" t="s">
+        <v>146</v>
+      </c>
+      <c r="H125" t="s">
+        <v>146</v>
+      </c>
+      <c r="I125" s="1">
+        <v>45407</v>
+      </c>
+      <c r="J125" s="4">
+        <v>28.371808918683801</v>
+      </c>
+      <c r="K125" s="4">
+        <v>-81.517879136438097</v>
+      </c>
+      <c r="L125" s="6">
+        <v>51</v>
+      </c>
+      <c r="M125" t="s">
+        <v>50</v>
+      </c>
+      <c r="N125">
+        <v>1</v>
+      </c>
+      <c r="O125">
+        <v>14</v>
+      </c>
+      <c r="P125">
+        <f>2+2/16</f>
+        <v>2.125</v>
+      </c>
+      <c r="Q125">
+        <f>1+10/16</f>
+        <v>1.625</v>
+      </c>
+      <c r="R125">
+        <f>1+13/16</f>
+        <v>1.8125</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>447</v>
+      </c>
+      <c r="B126">
+        <v>36</v>
+      </c>
+      <c r="C126" t="s">
+        <v>420</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="E126" t="s">
+        <v>452</v>
+      </c>
+      <c r="F126" t="s">
+        <v>167</v>
+      </c>
+      <c r="G126" t="s">
+        <v>146</v>
+      </c>
+      <c r="H126" t="s">
+        <v>146</v>
+      </c>
+      <c r="I126" s="1">
+        <v>45403</v>
+      </c>
+      <c r="J126" s="4">
+        <v>29.232650252891698</v>
+      </c>
+      <c r="K126" s="4">
+        <v>-81.107395234459503</v>
+      </c>
+      <c r="L126" s="6">
+        <v>52</v>
+      </c>
+      <c r="M126" t="s">
+        <v>449</v>
+      </c>
+      <c r="N126">
+        <v>1</v>
+      </c>
+      <c r="O126">
+        <v>48</v>
+      </c>
+      <c r="P126">
+        <v>3</v>
+      </c>
+      <c r="Q126">
+        <v>2.75</v>
+      </c>
+      <c r="R126">
+        <f>3+1/16</f>
+        <v>3.0625</v>
       </c>
     </row>
   </sheetData>

--- a/data/duck_data.xlsx
+++ b/data/duck_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allan\Documents\DS_Projects\portfolio-deployments\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E6EEA9-2D26-4D15-B9BC-EDEDA8AA5788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C43914-BCB4-405D-9CD8-EDBD94FFB52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15750" xr2:uid="{EF9DEEC2-186D-4161-AB80-57C24753F6AE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EF9DEEC2-186D-4161-AB80-57C24753F6AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Ducks" sheetId="1" r:id="rId1"/>
@@ -1498,7 +1498,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1508,6 +1508,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1569,8 +1570,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{55715085-9AFB-4516-817F-DC3F49C2B133}" name="Table1" displayName="Table1" ref="A1:R126" totalsRowShown="0">
   <autoFilter ref="A1:R126" xr:uid="{55715085-9AFB-4516-817F-DC3F49C2B133}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R98">
-    <sortCondition ref="I1:I98"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R126">
+    <sortCondition ref="I1:I126"/>
   </sortState>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{526AE2CE-1A5F-4A7A-B147-A0F5F581786F}" name="Duck"/>
@@ -1911,36 +1912,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28BE0B7-C424-43DE-B13E-D21D7F7285C7}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:V126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="67" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L110" sqref="L110"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A39" sqref="A39"/>
+      <selection pane="topRight" activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="39.88671875" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="39.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1996,7 +2002,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -2053,7 +2059,7 @@
       </c>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2110,7 +2116,7 @@
       </c>
       <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2166,7 +2172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -2223,7 +2229,7 @@
       </c>
       <c r="S5" s="2"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -2280,7 +2286,7 @@
       </c>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -2336,7 +2342,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -2393,7 +2399,7 @@
       </c>
       <c r="V8" s="2"/>
     </row>
-    <row r="9" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2450,7 +2456,7 @@
       </c>
       <c r="S9" s="2"/>
     </row>
-    <row r="10" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -2503,7 +2509,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -2560,7 +2566,7 @@
       </c>
       <c r="S11" s="2"/>
     </row>
-    <row r="12" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2617,7 +2623,7 @@
       </c>
       <c r="S12" s="2"/>
     </row>
-    <row r="13" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -2673,7 +2679,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -2730,7 +2736,7 @@
       </c>
       <c r="S14" s="2"/>
     </row>
-    <row r="15" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2787,7 +2793,7 @@
       </c>
       <c r="S15" s="2"/>
     </row>
-    <row r="16" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -2843,7 +2849,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -2900,7 +2906,7 @@
       </c>
       <c r="S17" s="2"/>
     </row>
-    <row r="18" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -2957,7 +2963,7 @@
       </c>
       <c r="S18" s="2"/>
     </row>
-    <row r="19" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -3013,7 +3019,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -3070,7 +3076,7 @@
       </c>
       <c r="S20" s="2"/>
     </row>
-    <row r="21" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -3127,7 +3133,7 @@
       </c>
       <c r="S21" s="2"/>
     </row>
-    <row r="22" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -3183,7 +3189,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -3240,7 +3246,7 @@
       </c>
       <c r="S23" s="2"/>
     </row>
-    <row r="24" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -3297,7 +3303,7 @@
       </c>
       <c r="S24" s="2"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -3353,7 +3359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="144" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -3410,7 +3416,7 @@
       </c>
       <c r="S26" s="2"/>
     </row>
-    <row r="27" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -3467,7 +3473,7 @@
       </c>
       <c r="S27" s="2"/>
     </row>
-    <row r="28" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -3523,7 +3529,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -3580,7 +3586,7 @@
       </c>
       <c r="S29" s="2"/>
     </row>
-    <row r="30" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -3637,7 +3643,7 @@
       </c>
       <c r="S30" s="2"/>
     </row>
-    <row r="31" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>84</v>
       </c>
@@ -3693,7 +3699,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -3750,7 +3756,7 @@
       </c>
       <c r="S32" s="2"/>
     </row>
-    <row r="33" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -3807,7 +3813,7 @@
       </c>
       <c r="S33" s="2"/>
     </row>
-    <row r="34" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -3863,7 +3869,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -3922,7 +3928,7 @@
       </c>
       <c r="S35" s="2"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -3979,7 +3985,7 @@
       </c>
       <c r="S36" s="2"/>
     </row>
-    <row r="37" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -4035,7 +4041,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -4092,7 +4098,7 @@
       </c>
       <c r="S38" s="2"/>
     </row>
-    <row r="39" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>96</v>
       </c>
@@ -4149,7 +4155,7 @@
       </c>
       <c r="S39" s="2"/>
     </row>
-    <row r="40" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>97</v>
       </c>
@@ -4205,7 +4211,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>228</v>
       </c>
@@ -4261,7 +4267,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>229</v>
       </c>
@@ -4317,7 +4323,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>231</v>
       </c>
@@ -4373,7 +4379,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>232</v>
       </c>
@@ -4429,7 +4435,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>241</v>
       </c>
@@ -4485,7 +4491,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>242</v>
       </c>
@@ -4541,7 +4547,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>243</v>
       </c>
@@ -4597,7 +4603,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>244</v>
       </c>
@@ -4653,7 +4659,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>331</v>
       </c>
@@ -4699,19 +4705,17 @@
       <c r="O49">
         <v>50</v>
       </c>
-      <c r="P49">
-        <f>2+15/16</f>
-        <v>2.9375</v>
-      </c>
-      <c r="Q49">
-        <v>3.75</v>
-      </c>
-      <c r="R49">
-        <f>3+13/16</f>
-        <v>3.8125</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="P49" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="Q49" s="7">
+        <v>9.5</v>
+      </c>
+      <c r="R49" s="7">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>332</v>
       </c>
@@ -4757,18 +4761,17 @@
       <c r="O50">
         <v>47</v>
       </c>
-      <c r="P50">
-        <v>3</v>
-      </c>
-      <c r="Q50">
-        <f>3+14/16</f>
-        <v>3.875</v>
-      </c>
-      <c r="R50">
-        <v>3.125</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P50" s="7">
+        <v>7.6</v>
+      </c>
+      <c r="Q50" s="7">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="R50" s="7">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>333</v>
       </c>
@@ -4814,20 +4817,17 @@
       <c r="O51">
         <v>36</v>
       </c>
-      <c r="P51">
-        <f>2+13/16</f>
-        <v>2.8125</v>
-      </c>
-      <c r="Q51">
-        <f>2+6/16</f>
-        <v>2.375</v>
-      </c>
-      <c r="R51">
-        <f>3+1/16</f>
-        <v>3.0625</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="P51" s="7">
+        <v>7.1</v>
+      </c>
+      <c r="Q51" s="7">
+        <v>6</v>
+      </c>
+      <c r="R51" s="7">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>272</v>
       </c>
@@ -4873,17 +4873,17 @@
       <c r="O52">
         <v>17</v>
       </c>
-      <c r="P52">
+      <c r="P52" s="7">
         <v>5.4</v>
       </c>
-      <c r="Q52">
+      <c r="Q52" s="7">
         <v>4.5</v>
       </c>
-      <c r="R52">
+      <c r="R52" s="7">
         <v>4.7</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>245</v>
       </c>
@@ -4929,17 +4929,17 @@
       <c r="O53">
         <v>17</v>
       </c>
-      <c r="P53">
+      <c r="P53" s="7">
         <v>5.4</v>
       </c>
-      <c r="Q53">
+      <c r="Q53" s="7">
         <v>5.6</v>
       </c>
-      <c r="R53">
+      <c r="R53" s="7">
         <v>5.8</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>246</v>
       </c>
@@ -4985,17 +4985,17 @@
       <c r="O54">
         <v>18</v>
       </c>
-      <c r="P54">
+      <c r="P54" s="7">
         <v>6.1</v>
       </c>
-      <c r="Q54">
+      <c r="Q54" s="7">
         <v>5.7</v>
       </c>
-      <c r="R54">
+      <c r="R54" s="7">
         <v>5.9</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>247</v>
       </c>
@@ -5041,17 +5041,17 @@
       <c r="O55">
         <v>17</v>
       </c>
-      <c r="P55">
+      <c r="P55" s="7">
         <v>5.7</v>
       </c>
-      <c r="Q55">
+      <c r="Q55" s="7">
         <v>5.7</v>
       </c>
-      <c r="R55">
+      <c r="R55" s="7">
         <v>5.8</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>248</v>
       </c>
@@ -5097,17 +5097,17 @@
       <c r="O56">
         <v>19</v>
       </c>
-      <c r="P56">
+      <c r="P56" s="7">
         <v>5.8</v>
       </c>
-      <c r="Q56">
+      <c r="Q56" s="7">
         <v>5.7</v>
       </c>
-      <c r="R56">
+      <c r="R56" s="7">
         <v>5.9</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>257</v>
       </c>
@@ -5153,17 +5153,17 @@
       <c r="O57">
         <v>155</v>
       </c>
-      <c r="P57">
+      <c r="P57" s="7">
         <v>11.5</v>
       </c>
-      <c r="Q57">
+      <c r="Q57" s="7">
         <v>8.1</v>
       </c>
-      <c r="R57">
+      <c r="R57" s="7">
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>258</v>
       </c>
@@ -5209,17 +5209,17 @@
       <c r="O58">
         <v>9</v>
       </c>
-      <c r="P58">
+      <c r="P58" s="7">
         <v>3.3</v>
       </c>
-      <c r="Q58">
+      <c r="Q58" s="7">
         <v>4.7</v>
       </c>
-      <c r="R58">
+      <c r="R58" s="7">
         <v>5.4</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>259</v>
       </c>
@@ -5265,17 +5265,17 @@
       <c r="O59">
         <v>11</v>
       </c>
-      <c r="P59">
+      <c r="P59" s="7">
         <v>6.4</v>
       </c>
-      <c r="Q59">
+      <c r="Q59" s="7">
         <v>3.3</v>
       </c>
-      <c r="R59">
+      <c r="R59" s="7">
         <v>4.3</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>275</v>
       </c>
@@ -5321,18 +5321,17 @@
       <c r="O60">
         <v>145</v>
       </c>
-      <c r="P60">
-        <f>2+14/16</f>
-        <v>2.875</v>
-      </c>
-      <c r="Q60">
-        <v>2.5</v>
-      </c>
-      <c r="R60">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="P60" s="7">
+        <v>7.3</v>
+      </c>
+      <c r="Q60" s="7">
+        <v>6.4</v>
+      </c>
+      <c r="R60" s="7">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>273</v>
       </c>
@@ -5378,19 +5377,17 @@
       <c r="O61">
         <v>107</v>
       </c>
-      <c r="P61">
-        <f>3+13/16</f>
-        <v>3.8125</v>
-      </c>
-      <c r="Q61">
-        <v>3.25</v>
-      </c>
-      <c r="R61">
-        <f>4+10/16</f>
-        <v>4.625</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="P61" s="7">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="Q61" s="7">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="R61" s="7">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>274</v>
       </c>
@@ -5436,17 +5433,17 @@
       <c r="O62">
         <v>102</v>
       </c>
-      <c r="P62">
-        <v>3.75</v>
-      </c>
-      <c r="Q62">
-        <v>3.5</v>
-      </c>
-      <c r="R62">
-        <v>4.75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P62" s="7">
+        <v>9.5</v>
+      </c>
+      <c r="Q62" s="7">
+        <v>8.9</v>
+      </c>
+      <c r="R62" s="7">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>314</v>
       </c>
@@ -5492,19 +5489,17 @@
       <c r="O63">
         <v>86</v>
       </c>
-      <c r="P63">
-        <f>3+4/16</f>
-        <v>3.25</v>
-      </c>
-      <c r="Q63">
-        <v>2.75</v>
-      </c>
-      <c r="R63">
-        <f>3+9/16</f>
-        <v>3.5625</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P63" s="7">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="Q63" s="7">
+        <v>7</v>
+      </c>
+      <c r="R63" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>281</v>
       </c>
@@ -5550,18 +5545,17 @@
       <c r="O64">
         <v>18</v>
       </c>
-      <c r="P64">
-        <v>2</v>
-      </c>
-      <c r="Q64">
-        <v>2.125</v>
-      </c>
-      <c r="R64">
-        <f>2+7/16</f>
-        <v>2.4375</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P64" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Q64" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="R64" s="7">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>289</v>
       </c>
@@ -5607,19 +5601,17 @@
       <c r="O65">
         <v>21</v>
       </c>
-      <c r="P65">
-        <f>2+3/16</f>
-        <v>2.1875</v>
-      </c>
-      <c r="Q65">
-        <f>2+5/16</f>
-        <v>2.3125</v>
-      </c>
-      <c r="R65">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="P65" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="Q65" s="7">
+        <v>5.9</v>
+      </c>
+      <c r="R65" s="7">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>290</v>
       </c>
@@ -5665,18 +5657,17 @@
       <c r="O66">
         <v>24</v>
       </c>
-      <c r="P66">
-        <f>2+9/16</f>
-        <v>2.5625</v>
-      </c>
-      <c r="Q66">
-        <v>2</v>
-      </c>
-      <c r="R66">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P66" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="Q66" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="R66" s="7">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>291</v>
       </c>
@@ -5722,18 +5713,17 @@
       <c r="O67">
         <v>26</v>
       </c>
-      <c r="P67">
-        <v>2.625</v>
-      </c>
-      <c r="Q67">
-        <v>2.25</v>
-      </c>
-      <c r="R67">
-        <f>2+3/16</f>
-        <v>2.1875</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P67" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="Q67" s="7">
+        <v>5.7</v>
+      </c>
+      <c r="R67" s="7">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>305</v>
       </c>
@@ -5779,18 +5769,17 @@
       <c r="O68">
         <v>162</v>
       </c>
-      <c r="P68">
-        <v>5.25</v>
-      </c>
-      <c r="Q68">
-        <f>5+6/16</f>
-        <v>5.375</v>
-      </c>
-      <c r="R68">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P68" s="7">
+        <v>13.3</v>
+      </c>
+      <c r="Q68" s="7">
+        <v>13.7</v>
+      </c>
+      <c r="R68" s="7">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>307</v>
       </c>
@@ -5836,18 +5825,17 @@
       <c r="O69">
         <v>25</v>
       </c>
-      <c r="P69">
-        <f>2+15/16</f>
-        <v>2.9375</v>
-      </c>
-      <c r="Q69">
-        <v>2.125</v>
-      </c>
-      <c r="R69">
-        <v>2.125</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P69" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="Q69" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="R69" s="7">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>308</v>
       </c>
@@ -5893,20 +5881,17 @@
       <c r="O70">
         <v>24</v>
       </c>
-      <c r="P70">
-        <f>2+10/16</f>
-        <v>2.625</v>
-      </c>
-      <c r="Q70">
-        <f>1+15/16</f>
-        <v>1.9375</v>
-      </c>
-      <c r="R70">
-        <f>2+13/16</f>
-        <v>2.8125</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="P70" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="Q70" s="7">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="R70" s="7">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>280</v>
       </c>
@@ -5952,17 +5937,17 @@
       <c r="O71">
         <v>39</v>
       </c>
-      <c r="P71">
-        <v>2.5</v>
-      </c>
-      <c r="Q71">
-        <v>2.5</v>
-      </c>
-      <c r="R71">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P71" s="7">
+        <v>6.4</v>
+      </c>
+      <c r="Q71" s="7">
+        <v>6.4</v>
+      </c>
+      <c r="R71" s="7">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>279</v>
       </c>
@@ -6008,17 +5993,17 @@
       <c r="O72">
         <v>163</v>
       </c>
-      <c r="P72">
-        <v>2.48</v>
-      </c>
-      <c r="Q72">
-        <v>2.4</v>
-      </c>
-      <c r="R72">
-        <v>2.69</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P72" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="Q72" s="7">
+        <v>6.1</v>
+      </c>
+      <c r="R72" s="7">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>282</v>
       </c>
@@ -6064,18 +6049,17 @@
       <c r="O73">
         <v>56</v>
       </c>
-      <c r="P73">
-        <v>3.25</v>
-      </c>
-      <c r="Q73">
-        <f>3+2/16</f>
-        <v>3.125</v>
-      </c>
-      <c r="R73">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P73" s="7">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="Q73" s="7">
+        <v>7.9</v>
+      </c>
+      <c r="R73" s="7">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>285</v>
       </c>
@@ -6121,18 +6105,17 @@
       <c r="O74">
         <v>56</v>
       </c>
-      <c r="P74">
-        <v>3.25</v>
-      </c>
-      <c r="Q74">
-        <f>3+5/16</f>
-        <v>3.3125</v>
-      </c>
-      <c r="R74">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P74" s="7">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="Q74" s="7">
+        <v>8.4</v>
+      </c>
+      <c r="R74" s="7">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>286</v>
       </c>
@@ -6178,18 +6161,17 @@
       <c r="O75">
         <v>55</v>
       </c>
-      <c r="P75">
-        <f>3+6/16</f>
-        <v>3.375</v>
-      </c>
-      <c r="Q75">
-        <v>3.125</v>
-      </c>
-      <c r="R75">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P75" s="7">
+        <v>8.6</v>
+      </c>
+      <c r="Q75" s="7">
+        <v>7.9</v>
+      </c>
+      <c r="R75" s="7">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>287</v>
       </c>
@@ -6235,19 +6217,17 @@
       <c r="O76">
         <v>55</v>
       </c>
-      <c r="P76">
-        <f>3+5/16</f>
-        <v>3.3125</v>
-      </c>
-      <c r="Q76">
-        <f>3+13/16</f>
-        <v>3.8125</v>
-      </c>
-      <c r="R76">
-        <v>3.625</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P76" s="7">
+        <v>8.4</v>
+      </c>
+      <c r="Q76" s="7">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="R76" s="7">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>283</v>
       </c>
@@ -6293,18 +6273,17 @@
       <c r="O77">
         <v>62</v>
       </c>
-      <c r="P77">
-        <v>3.125</v>
-      </c>
-      <c r="Q77">
-        <f>3+14/16</f>
-        <v>3.875</v>
-      </c>
-      <c r="R77">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P77" s="7">
+        <v>7.9</v>
+      </c>
+      <c r="Q77" s="7">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="R77" s="7">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>284</v>
       </c>
@@ -6350,17 +6329,17 @@
       <c r="O78">
         <v>116</v>
       </c>
-      <c r="P78">
-        <v>3.125</v>
-      </c>
-      <c r="Q78">
-        <v>2.625</v>
-      </c>
-      <c r="R78">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P78" s="7">
+        <v>7.9</v>
+      </c>
+      <c r="Q78" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="R78" s="7">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>288</v>
       </c>
@@ -6406,20 +6385,17 @@
       <c r="O79">
         <v>67</v>
       </c>
-      <c r="P79">
-        <f>4+7/16</f>
-        <v>4.4375</v>
-      </c>
-      <c r="Q79">
-        <f>3+1/16</f>
-        <v>3.0625</v>
-      </c>
-      <c r="R79">
-        <f>4+1/16</f>
-        <v>4.0625</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P79" s="7">
+        <v>11.3</v>
+      </c>
+      <c r="Q79" s="7">
+        <v>7.8</v>
+      </c>
+      <c r="R79" s="7">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>306</v>
       </c>
@@ -6465,20 +6441,17 @@
       <c r="O80">
         <v>59</v>
       </c>
-      <c r="P80">
-        <f>3+13/16</f>
-        <v>3.8125</v>
-      </c>
-      <c r="Q80">
-        <f>3+14/16</f>
-        <v>3.875</v>
-      </c>
-      <c r="R80">
-        <f>3+7/16</f>
-        <v>3.4375</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P80" s="7">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="Q80" s="7">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="R80" s="7">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>309</v>
       </c>
@@ -6524,19 +6497,17 @@
       <c r="O81">
         <v>54</v>
       </c>
-      <c r="P81">
-        <v>3.125</v>
-      </c>
-      <c r="Q81">
-        <f>3+7/16</f>
-        <v>3.4375</v>
-      </c>
-      <c r="R81">
-        <f>4+13/16</f>
-        <v>4.8125</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P81" s="7">
+        <v>7.9</v>
+      </c>
+      <c r="Q81" s="7">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="R81" s="7">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>310</v>
       </c>
@@ -6582,19 +6553,17 @@
       <c r="O82">
         <v>95</v>
       </c>
-      <c r="P82">
-        <f>3+1/16</f>
-        <v>3.0625</v>
-      </c>
-      <c r="Q82">
-        <v>4.875</v>
-      </c>
-      <c r="R82">
-        <f>4+14/16</f>
-        <v>4.875</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P82" s="7">
+        <v>7.8</v>
+      </c>
+      <c r="Q82" s="7">
+        <v>12.4</v>
+      </c>
+      <c r="R82" s="7">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>311</v>
       </c>
@@ -6640,20 +6609,17 @@
       <c r="O83">
         <v>0.1</v>
       </c>
-      <c r="P83">
-        <f>10/16</f>
-        <v>0.625</v>
-      </c>
-      <c r="Q83">
-        <f>9/16</f>
-        <v>0.5625</v>
-      </c>
-      <c r="R83">
-        <f>9/16</f>
-        <v>0.5625</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P83" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="Q83" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="R83" s="7">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>303</v>
       </c>
@@ -6699,19 +6665,17 @@
       <c r="O84">
         <v>42</v>
       </c>
-      <c r="P84">
-        <f>3+14/16</f>
-        <v>3.875</v>
-      </c>
-      <c r="Q84">
-        <f>3+11/16</f>
-        <v>3.6875</v>
-      </c>
-      <c r="R84">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P84" s="7">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="Q84" s="7">
+        <v>9.4</v>
+      </c>
+      <c r="R84" s="7">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>304</v>
       </c>
@@ -6757,18 +6721,17 @@
       <c r="O85">
         <v>48</v>
       </c>
-      <c r="P85">
-        <f>3+5/16</f>
-        <v>3.3125</v>
-      </c>
-      <c r="Q85">
-        <v>3.75</v>
-      </c>
-      <c r="R85">
-        <v>3.625</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P85" s="7">
+        <v>8.4</v>
+      </c>
+      <c r="Q85" s="7">
+        <v>9.5</v>
+      </c>
+      <c r="R85" s="7">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>317</v>
       </c>
@@ -6814,17 +6777,17 @@
       <c r="O86">
         <v>66</v>
       </c>
-      <c r="P86">
-        <v>2.8125</v>
-      </c>
-      <c r="Q86">
-        <v>2.875</v>
-      </c>
-      <c r="R86">
-        <v>3.3125</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P86" s="7">
+        <v>7.1</v>
+      </c>
+      <c r="Q86" s="7">
+        <v>7.3</v>
+      </c>
+      <c r="R86" s="7">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>318</v>
       </c>
@@ -6870,19 +6833,17 @@
       <c r="O87">
         <v>22</v>
       </c>
-      <c r="P87">
-        <f>2+11/16</f>
-        <v>2.6875</v>
-      </c>
-      <c r="Q87">
-        <v>2</v>
-      </c>
-      <c r="R87">
-        <f>2+3/16</f>
-        <v>2.1875</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P87" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="Q87" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="R87" s="7">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>320</v>
       </c>
@@ -6928,19 +6889,17 @@
       <c r="O88">
         <v>17</v>
       </c>
-      <c r="P88">
-        <f>1+9/16</f>
-        <v>1.5625</v>
-      </c>
-      <c r="Q88">
-        <v>1.75</v>
-      </c>
-      <c r="R88">
-        <f>1+13/16</f>
-        <v>1.8125</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P88" s="7">
+        <v>4</v>
+      </c>
+      <c r="Q88" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R88" s="7">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>322</v>
       </c>
@@ -6986,20 +6945,17 @@
       <c r="O89">
         <v>19</v>
       </c>
-      <c r="P89">
-        <f>2+6/16</f>
-        <v>2.375</v>
-      </c>
-      <c r="Q89">
-        <f>1+7/8</f>
-        <v>1.875</v>
-      </c>
-      <c r="R89">
-        <f>2+7/16</f>
-        <v>2.4375</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P89" s="7">
+        <v>6</v>
+      </c>
+      <c r="Q89" s="7">
+        <v>4.8</v>
+      </c>
+      <c r="R89" s="7">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>321</v>
       </c>
@@ -7045,17 +7001,17 @@
       <c r="O90">
         <v>15</v>
       </c>
-      <c r="P90">
-        <v>2.875</v>
-      </c>
-      <c r="Q90">
-        <v>2</v>
-      </c>
-      <c r="R90">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P90" s="7">
+        <v>7.3</v>
+      </c>
+      <c r="Q90" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="R90" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>323</v>
       </c>
@@ -7101,19 +7057,17 @@
       <c r="O91">
         <v>18</v>
       </c>
-      <c r="P91">
-        <f>2+7/16</f>
-        <v>2.4375</v>
-      </c>
-      <c r="Q91">
-        <v>1.9375</v>
-      </c>
-      <c r="R91">
-        <f>1.375</f>
-        <v>1.375</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P91" s="7">
+        <v>6.2</v>
+      </c>
+      <c r="Q91" s="7">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="R91" s="7">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>324</v>
       </c>
@@ -7159,19 +7113,17 @@
       <c r="O92">
         <v>17</v>
       </c>
-      <c r="P92">
-        <f>1+15/16</f>
-        <v>1.9375</v>
-      </c>
-      <c r="Q92">
-        <f>1+7/8</f>
-        <v>1.875</v>
-      </c>
-      <c r="R92">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P92" s="7">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Q92" s="7">
+        <v>4.8</v>
+      </c>
+      <c r="R92" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>325</v>
       </c>
@@ -7217,18 +7169,17 @@
       <c r="O93">
         <v>14</v>
       </c>
-      <c r="P93">
-        <v>1.9375</v>
-      </c>
-      <c r="Q93">
-        <f>1+13/16</f>
-        <v>1.8125</v>
-      </c>
-      <c r="R93">
-        <v>1.875</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P93" s="7">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Q93" s="7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="R93" s="7">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>341</v>
       </c>
@@ -7274,19 +7225,17 @@
       <c r="O94">
         <v>6</v>
       </c>
-      <c r="P94">
-        <v>1.125</v>
-      </c>
-      <c r="Q94">
-        <f>1+7/16</f>
-        <v>1.4375</v>
-      </c>
-      <c r="R94">
-        <f>1+5/16</f>
-        <v>1.3125</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="P94" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="Q94" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="R94" s="7">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>340</v>
       </c>
@@ -7332,19 +7281,17 @@
       <c r="O95">
         <v>43</v>
       </c>
-      <c r="P95">
-        <v>3</v>
-      </c>
-      <c r="Q95">
-        <f>2+14/16</f>
-        <v>2.875</v>
-      </c>
-      <c r="R95">
-        <f>3+5/16</f>
-        <v>3.3125</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P95" s="7">
+        <v>7.6</v>
+      </c>
+      <c r="Q95" s="7">
+        <v>7.3</v>
+      </c>
+      <c r="R95" s="7">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>338</v>
       </c>
@@ -7390,18 +7337,17 @@
       <c r="O96">
         <v>45</v>
       </c>
-      <c r="P96">
-        <f>3+5/16</f>
-        <v>3.3125</v>
-      </c>
-      <c r="Q96">
-        <v>3.875</v>
-      </c>
-      <c r="R96">
-        <v>3.125</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P96" s="7">
+        <v>8.4</v>
+      </c>
+      <c r="Q96" s="7">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="R96" s="7">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>347</v>
       </c>
@@ -7447,18 +7393,17 @@
       <c r="O97">
         <v>48</v>
       </c>
-      <c r="P97">
-        <f>3+6/16</f>
-        <v>3.375</v>
-      </c>
-      <c r="Q97">
-        <v>3.875</v>
-      </c>
-      <c r="R97">
-        <v>3.125</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P97" s="7">
+        <v>8.6</v>
+      </c>
+      <c r="Q97" s="7">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="R97" s="7">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>339</v>
       </c>
@@ -7504,18 +7449,17 @@
       <c r="O98">
         <v>47</v>
       </c>
-      <c r="P98">
-        <f>3+6/16</f>
-        <v>3.375</v>
-      </c>
-      <c r="Q98">
-        <v>3.875</v>
-      </c>
-      <c r="R98">
-        <v>3.125</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P98" s="7">
+        <v>8.6</v>
+      </c>
+      <c r="Q98" s="7">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="R98" s="7">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>395</v>
       </c>
@@ -7561,17 +7505,17 @@
       <c r="O99">
         <v>153</v>
       </c>
-      <c r="P99">
-        <v>5</v>
-      </c>
-      <c r="Q99">
-        <v>5.25</v>
-      </c>
-      <c r="R99">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P99" s="7">
+        <v>12.7</v>
+      </c>
+      <c r="Q99" s="7">
+        <v>13.3</v>
+      </c>
+      <c r="R99" s="7">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>396</v>
       </c>
@@ -7617,20 +7561,17 @@
       <c r="O100">
         <v>19</v>
       </c>
-      <c r="P100">
-        <f>1+15/16</f>
-        <v>1.9375</v>
-      </c>
-      <c r="Q100">
-        <f>1+14/16</f>
-        <v>1.875</v>
-      </c>
-      <c r="R100">
-        <f>2+5/16</f>
-        <v>2.3125</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P100" s="7">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Q100" s="7">
+        <v>4.8</v>
+      </c>
+      <c r="R100" s="7">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>397</v>
       </c>
@@ -7676,19 +7617,17 @@
       <c r="O101">
         <v>19</v>
       </c>
-      <c r="P101">
-        <v>2</v>
-      </c>
-      <c r="Q101">
-        <f>1+14/16</f>
-        <v>1.875</v>
-      </c>
-      <c r="R101">
-        <f>2+5/16</f>
-        <v>2.3125</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P101" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Q101" s="7">
+        <v>4.8</v>
+      </c>
+      <c r="R101" s="7">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>398</v>
       </c>
@@ -7734,19 +7673,17 @@
       <c r="O102">
         <v>18</v>
       </c>
-      <c r="P102">
-        <v>2</v>
-      </c>
-      <c r="Q102">
-        <f>1+14/16</f>
-        <v>1.875</v>
-      </c>
-      <c r="R102">
-        <f>2+3/16</f>
-        <v>2.1875</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P102" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Q102" s="7">
+        <v>4.8</v>
+      </c>
+      <c r="R102" s="7">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>399</v>
       </c>
@@ -7792,20 +7729,17 @@
       <c r="O103">
         <v>18</v>
       </c>
-      <c r="P103">
-        <f>2+1/16</f>
-        <v>2.0625</v>
-      </c>
-      <c r="Q103">
-        <f>1+14/16</f>
-        <v>1.875</v>
-      </c>
-      <c r="R103">
-        <f>2+2/16</f>
-        <v>2.125</v>
-      </c>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P103" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="Q103" s="7">
+        <v>4.8</v>
+      </c>
+      <c r="R103" s="7">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>400</v>
       </c>
@@ -7851,19 +7785,17 @@
       <c r="O104">
         <v>22</v>
       </c>
-      <c r="P104">
-        <v>2.5</v>
-      </c>
-      <c r="Q104">
-        <f>1+15/16</f>
-        <v>1.9375</v>
-      </c>
-      <c r="R104">
-        <f>2+2/16</f>
-        <v>2.125</v>
-      </c>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P104" s="7">
+        <v>6.4</v>
+      </c>
+      <c r="Q104" s="7">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="R104" s="7">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>410</v>
       </c>
@@ -7909,20 +7841,17 @@
       <c r="O105">
         <v>20</v>
       </c>
-      <c r="P105">
-        <f>2+5/16</f>
-        <v>2.3125</v>
-      </c>
-      <c r="Q105">
-        <f>1+11/16</f>
-        <v>1.6875</v>
-      </c>
-      <c r="R105">
-        <f>2+7/16</f>
-        <v>2.4375</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P105" s="7">
+        <v>5.9</v>
+      </c>
+      <c r="Q105" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="R105" s="7">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>409</v>
       </c>
@@ -7968,18 +7897,17 @@
       <c r="O106">
         <v>70</v>
       </c>
-      <c r="P106">
-        <f>2.625</f>
-        <v>2.625</v>
-      </c>
-      <c r="Q106">
-        <v>3</v>
-      </c>
-      <c r="R106">
-        <v>2.625</v>
-      </c>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P106" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="Q106" s="7">
+        <v>7.6</v>
+      </c>
+      <c r="R106" s="7">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>412</v>
       </c>
@@ -8025,19 +7953,17 @@
       <c r="O107">
         <v>17</v>
       </c>
-      <c r="P107">
-        <v>2.25</v>
-      </c>
-      <c r="Q107">
-        <f>1+14/16</f>
-        <v>1.875</v>
-      </c>
-      <c r="R107">
-        <f>1+14/16</f>
-        <v>1.875</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P107" s="7">
+        <v>5.7</v>
+      </c>
+      <c r="Q107" s="7">
+        <v>4.8</v>
+      </c>
+      <c r="R107" s="7">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>411</v>
       </c>
@@ -8083,18 +8009,17 @@
       <c r="O108">
         <v>15</v>
       </c>
-      <c r="P108">
-        <v>2</v>
-      </c>
-      <c r="Q108">
-        <f>1+13/16</f>
-        <v>1.8125</v>
-      </c>
-      <c r="R108">
-        <v>1.875</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P108" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Q108" s="7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="R108" s="7">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>413</v>
       </c>
@@ -8140,17 +8065,17 @@
       <c r="O109">
         <v>54</v>
       </c>
-      <c r="P109">
-        <v>3</v>
-      </c>
-      <c r="Q109">
-        <v>2.625</v>
-      </c>
-      <c r="R109">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P109" s="7">
+        <v>7.6</v>
+      </c>
+      <c r="Q109" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="R109" s="7">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>421</v>
       </c>
@@ -8196,18 +8121,17 @@
       <c r="O110">
         <v>17</v>
       </c>
-      <c r="P110">
-        <v>1.75</v>
-      </c>
-      <c r="Q110">
-        <f>1+13/16</f>
-        <v>1.8125</v>
-      </c>
-      <c r="R110">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P110" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Q110" s="7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="R110" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>422</v>
       </c>
@@ -8253,36 +8177,34 @@
       <c r="O111">
         <v>68</v>
       </c>
-      <c r="P111">
-        <v>3.5</v>
-      </c>
-      <c r="Q111">
-        <f>3+6/16</f>
-        <v>3.375</v>
-      </c>
-      <c r="R111">
-        <f>3+9/16</f>
-        <v>3.5625</v>
-      </c>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P111" s="7">
+        <v>8.9</v>
+      </c>
+      <c r="Q111" s="7">
+        <v>8.6</v>
+      </c>
+      <c r="R111" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="B112">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C112" t="s">
         <v>420</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E112" t="s">
-        <v>133</v>
+        <v>440</v>
       </c>
       <c r="F112" t="s">
-        <v>26</v>
+        <v>165</v>
       </c>
       <c r="G112" t="s">
         <v>146</v>
@@ -8291,13 +8213,13 @@
         <v>146</v>
       </c>
       <c r="I112" s="1">
-        <v>45346</v>
+        <v>45270</v>
       </c>
       <c r="J112" s="4">
-        <v>38.892167999999998</v>
+        <v>42.787076999999996</v>
       </c>
       <c r="K112" s="4">
-        <v>-77.025794000000005</v>
+        <v>-71.503960000000006</v>
       </c>
       <c r="L112" s="6">
         <v>46</v>
@@ -8306,40 +8228,39 @@
         <v>50</v>
       </c>
       <c r="N112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O112">
-        <v>65</v>
-      </c>
-      <c r="P112">
+        <v>8</v>
+      </c>
+      <c r="P112" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="Q112" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="R112" s="7">
         <v>3.5</v>
       </c>
-      <c r="Q112">
-        <f>3+3/16</f>
-        <v>3.1875</v>
-      </c>
-      <c r="R112">
-        <v>4.1875</v>
-      </c>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B113">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C113" t="s">
         <v>420</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>433</v>
+        <v>230</v>
       </c>
       <c r="E113" t="s">
-        <v>133</v>
+        <v>327</v>
       </c>
       <c r="F113" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="G113" t="s">
         <v>146</v>
@@ -8348,13 +8269,13 @@
         <v>146</v>
       </c>
       <c r="I113" s="1">
-        <v>45346</v>
+        <v>45311</v>
       </c>
       <c r="J113" s="4">
-        <v>38.892167999999998</v>
+        <v>39.056086162518199</v>
       </c>
       <c r="K113" s="4">
-        <v>-77.025794000000005</v>
+        <v>-77.114897400000004</v>
       </c>
       <c r="L113" s="6">
         <v>46</v>
@@ -8366,37 +8287,36 @@
         <v>1</v>
       </c>
       <c r="O113">
-        <v>64</v>
-      </c>
-      <c r="P113">
-        <v>3.25</v>
-      </c>
-      <c r="Q113">
-        <v>3.1875</v>
-      </c>
-      <c r="R113">
-        <f>4+14/16</f>
-        <v>4.875</v>
-      </c>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="P113" s="7">
+        <v>6.4</v>
+      </c>
+      <c r="Q113" s="7">
+        <v>6</v>
+      </c>
+      <c r="R113" s="7">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B114">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C114" t="s">
         <v>420</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>434</v>
+        <v>230</v>
       </c>
       <c r="E114" t="s">
-        <v>437</v>
+        <v>327</v>
       </c>
       <c r="F114" t="s">
-        <v>438</v>
+        <v>163</v>
       </c>
       <c r="G114" t="s">
         <v>146</v>
@@ -8405,13 +8325,13 @@
         <v>146</v>
       </c>
       <c r="I114" s="1">
-        <v>45355</v>
+        <v>45311</v>
       </c>
       <c r="J114" s="4">
-        <v>33.246605000000002</v>
+        <v>39.056086162518199</v>
       </c>
       <c r="K114" s="4">
-        <v>-111.84272</v>
+        <v>-77.114897400000004</v>
       </c>
       <c r="L114" s="6">
         <v>46</v>
@@ -8423,38 +8343,36 @@
         <v>1</v>
       </c>
       <c r="O114">
-        <v>18</v>
-      </c>
-      <c r="P114">
-        <f>2+13/16</f>
-        <v>2.8125</v>
-      </c>
-      <c r="Q114">
-        <v>2</v>
-      </c>
-      <c r="R114">
-        <f>2+1/16</f>
-        <v>2.0625</v>
-      </c>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="P114" s="7">
+        <v>7</v>
+      </c>
+      <c r="Q114" s="7">
+        <v>6</v>
+      </c>
+      <c r="R114" s="7">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B115">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C115" t="s">
         <v>420</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E115" t="s">
-        <v>436</v>
+        <v>133</v>
       </c>
       <c r="F115" t="s">
-        <v>439</v>
+        <v>26</v>
       </c>
       <c r="G115" t="s">
         <v>146</v>
@@ -8463,13 +8381,13 @@
         <v>146</v>
       </c>
       <c r="I115" s="1">
-        <v>45353</v>
+        <v>45346</v>
       </c>
       <c r="J115" s="4">
-        <v>33.980536999999998</v>
+        <v>38.892167999999998</v>
       </c>
       <c r="K115" s="4">
-        <v>-84.424716000000004</v>
+        <v>-77.025794000000005</v>
       </c>
       <c r="L115" s="6">
         <v>46</v>
@@ -8481,37 +8399,37 @@
         <v>1</v>
       </c>
       <c r="O115">
-        <v>16</v>
-      </c>
-      <c r="P115">
-        <v>2</v>
-      </c>
-      <c r="Q115">
-        <v>2.875</v>
-      </c>
-      <c r="R115">
-        <v>2.0625</v>
-      </c>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="P115" s="7">
+        <v>8.9</v>
+      </c>
+      <c r="Q115" s="7">
+        <v>8.1</v>
+      </c>
+      <c r="R115" s="7">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B116">
+        <v>23</v>
+      </c>
+      <c r="C116" t="s">
+        <v>420</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E116" t="s">
+        <v>133</v>
+      </c>
+      <c r="F116" t="s">
         <v>26</v>
       </c>
-      <c r="C116" t="s">
-        <v>420</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="E116" t="s">
-        <v>437</v>
-      </c>
-      <c r="F116" t="s">
-        <v>438</v>
-      </c>
       <c r="G116" t="s">
         <v>146</v>
       </c>
@@ -8519,13 +8437,13 @@
         <v>146</v>
       </c>
       <c r="I116" s="1">
-        <v>45355</v>
+        <v>45346</v>
       </c>
       <c r="J116" s="4">
-        <v>33.246605000000002</v>
+        <v>38.892167999999998</v>
       </c>
       <c r="K116" s="4">
-        <v>-111.84272</v>
+        <v>-77.025794000000005</v>
       </c>
       <c r="L116" s="6">
         <v>46</v>
@@ -8537,36 +8455,36 @@
         <v>1</v>
       </c>
       <c r="O116">
-        <v>18</v>
-      </c>
-      <c r="P116">
-        <v>2.25</v>
-      </c>
-      <c r="Q116">
-        <v>2.875</v>
-      </c>
-      <c r="R116">
-        <v>2.0625</v>
-      </c>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="P116" s="7">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="Q116" s="7">
+        <v>8.1</v>
+      </c>
+      <c r="R116" s="7">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B117">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C117" t="s">
         <v>420</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>230</v>
+        <v>434</v>
       </c>
       <c r="E117" t="s">
-        <v>327</v>
+        <v>436</v>
       </c>
       <c r="F117" t="s">
-        <v>163</v>
+        <v>439</v>
       </c>
       <c r="G117" t="s">
         <v>146</v>
@@ -8575,13 +8493,13 @@
         <v>146</v>
       </c>
       <c r="I117" s="1">
-        <v>45311</v>
+        <v>45353</v>
       </c>
       <c r="J117" s="4">
-        <v>39.056086162518199</v>
+        <v>33.980536999999998</v>
       </c>
       <c r="K117" s="4">
-        <v>-77.114897400000004</v>
+        <v>-84.424716000000004</v>
       </c>
       <c r="L117" s="6">
         <v>46</v>
@@ -8593,37 +8511,36 @@
         <v>1</v>
       </c>
       <c r="O117">
-        <v>28</v>
-      </c>
-      <c r="P117">
-        <v>2.5</v>
-      </c>
-      <c r="Q117">
-        <f>2+6/16</f>
-        <v>2.375</v>
-      </c>
-      <c r="R117">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="P117" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Q117" s="7">
+        <v>7.3</v>
+      </c>
+      <c r="R117" s="7">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B118">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C118" t="s">
         <v>420</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>230</v>
+        <v>434</v>
       </c>
       <c r="E118" t="s">
-        <v>327</v>
+        <v>437</v>
       </c>
       <c r="F118" t="s">
-        <v>163</v>
+        <v>438</v>
       </c>
       <c r="G118" t="s">
         <v>146</v>
@@ -8632,13 +8549,13 @@
         <v>146</v>
       </c>
       <c r="I118" s="1">
-        <v>45311</v>
+        <v>45355</v>
       </c>
       <c r="J118" s="4">
-        <v>39.056086162518199</v>
+        <v>33.246605000000002</v>
       </c>
       <c r="K118" s="4">
-        <v>-77.114897400000004</v>
+        <v>-111.84272</v>
       </c>
       <c r="L118" s="6">
         <v>46</v>
@@ -8650,36 +8567,36 @@
         <v>1</v>
       </c>
       <c r="O118">
-        <v>28</v>
-      </c>
-      <c r="P118">
-        <v>2.75</v>
-      </c>
-      <c r="Q118">
-        <v>2.375</v>
-      </c>
-      <c r="R118">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="P118" s="7">
+        <v>7.1</v>
+      </c>
+      <c r="Q118" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="R118" s="7">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B119">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C119" t="s">
         <v>420</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E119" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F119" t="s">
-        <v>165</v>
+        <v>438</v>
       </c>
       <c r="G119" t="s">
         <v>146</v>
@@ -8688,13 +8605,13 @@
         <v>146</v>
       </c>
       <c r="I119" s="1">
-        <v>45270</v>
+        <v>45355</v>
       </c>
       <c r="J119" s="4">
-        <v>42.787076999999996</v>
+        <v>33.246605000000002</v>
       </c>
       <c r="K119" s="4">
-        <v>-71.503960000000006</v>
+        <v>-111.84272</v>
       </c>
       <c r="L119" s="6">
         <v>46</v>
@@ -8703,24 +8620,22 @@
         <v>50</v>
       </c>
       <c r="N119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O119">
-        <v>8</v>
-      </c>
-      <c r="P119">
-        <v>1.25</v>
-      </c>
-      <c r="Q119">
-        <f>1+7/16</f>
-        <v>1.4375</v>
-      </c>
-      <c r="R119">
-        <f>1+6/16</f>
-        <v>1.375</v>
-      </c>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="P119" s="7">
+        <v>5.7</v>
+      </c>
+      <c r="Q119" s="7">
+        <v>7.3</v>
+      </c>
+      <c r="R119" s="7">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>442</v>
       </c>
@@ -8766,19 +8681,17 @@
       <c r="O120">
         <v>28</v>
       </c>
-      <c r="P120">
-        <f>2+10/16</f>
-        <v>2.625</v>
-      </c>
-      <c r="Q120">
-        <v>2.25</v>
-      </c>
-      <c r="R120">
-        <f>2+15/16</f>
-        <v>2.9375</v>
-      </c>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P120" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="Q120" s="7">
+        <v>5.7</v>
+      </c>
+      <c r="R120" s="7">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>443</v>
       </c>
@@ -8824,33 +8737,31 @@
       <c r="O121">
         <v>27</v>
       </c>
-      <c r="P121">
-        <v>2.25</v>
-      </c>
-      <c r="Q121">
-        <f>2+3/16</f>
-        <v>2.1875</v>
-      </c>
-      <c r="R121">
-        <f>2+6/16</f>
-        <v>2.375</v>
-      </c>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P121" s="7">
+        <v>5.7</v>
+      </c>
+      <c r="Q121" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="R121" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B122">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C122" t="s">
-        <v>420</v>
+        <v>131</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E122" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F122" t="s">
         <v>167</v>
@@ -8862,43 +8773,42 @@
         <v>146</v>
       </c>
       <c r="I122" s="1">
-        <v>45407</v>
+        <v>45403</v>
       </c>
       <c r="J122" s="4">
-        <v>28.371808918683801</v>
+        <v>28.4809629890139</v>
       </c>
       <c r="K122" s="4">
-        <v>-81.517879136438097</v>
+        <v>-81.467406691372901</v>
       </c>
       <c r="L122" s="6">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M122" t="s">
         <v>50</v>
       </c>
       <c r="N122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O122">
-        <v>18</v>
-      </c>
-      <c r="P122">
-        <v>2</v>
-      </c>
-      <c r="Q122">
-        <f>1+10/16</f>
-        <v>1.625</v>
-      </c>
-      <c r="R122">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="P122" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Q122" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="R122" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>445</v>
+        <v>241</v>
       </c>
       <c r="B123">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C123" t="s">
         <v>131</v>
@@ -8928,44 +8838,42 @@
         <v>-81.467406691372901</v>
       </c>
       <c r="L123" s="6">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M123" t="s">
         <v>50</v>
       </c>
       <c r="N123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O123">
-        <v>35</v>
-      </c>
-      <c r="P123">
-        <f>1+10/16</f>
-        <v>1.625</v>
-      </c>
-      <c r="Q123">
-        <f>2+2/16</f>
-        <v>2.125</v>
-      </c>
-      <c r="R123">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="P123" s="7">
+        <v>5.9</v>
+      </c>
+      <c r="Q123" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="R123" s="7">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>241</v>
+        <v>447</v>
       </c>
       <c r="B124">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C124" t="s">
-        <v>131</v>
+        <v>420</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="E124" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F124" t="s">
         <v>167</v>
@@ -8980,42 +8888,39 @@
         <v>45403</v>
       </c>
       <c r="J124" s="4">
-        <v>28.4809629890139</v>
+        <v>29.232650252891698</v>
       </c>
       <c r="K124" s="4">
-        <v>-81.467406691372901</v>
+        <v>-81.107395234459503</v>
       </c>
       <c r="L124" s="6">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M124" t="s">
-        <v>50</v>
+        <v>449</v>
       </c>
       <c r="N124">
         <v>1</v>
       </c>
       <c r="O124">
-        <v>15</v>
-      </c>
-      <c r="P124">
-        <f>2+5/16</f>
-        <v>2.3125</v>
-      </c>
-      <c r="Q124">
-        <f>2+2/16</f>
-        <v>2.125</v>
-      </c>
-      <c r="R124">
-        <f>1+14/16</f>
-        <v>1.875</v>
-      </c>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="P124" s="7">
+        <v>7.6</v>
+      </c>
+      <c r="Q124" s="7">
+        <v>7</v>
+      </c>
+      <c r="R124" s="7">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B125">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C125" t="s">
         <v>420</v>
@@ -9024,7 +8929,7 @@
         <v>451</v>
       </c>
       <c r="E125" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F125" t="s">
         <v>167</v>
@@ -9045,7 +8950,7 @@
         <v>-81.517879136438097</v>
       </c>
       <c r="L125" s="6">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M125" t="s">
         <v>50</v>
@@ -9054,36 +8959,33 @@
         <v>1</v>
       </c>
       <c r="O125">
-        <v>14</v>
-      </c>
-      <c r="P125">
-        <f>2+2/16</f>
-        <v>2.125</v>
-      </c>
-      <c r="Q125">
-        <f>1+10/16</f>
-        <v>1.625</v>
-      </c>
-      <c r="R125">
-        <f>1+13/16</f>
-        <v>1.8125</v>
-      </c>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="P125" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Q125" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="R125" s="7">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B126">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C126" t="s">
         <v>420</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E126" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F126" t="s">
         <v>167</v>
@@ -9095,41 +8997,40 @@
         <v>146</v>
       </c>
       <c r="I126" s="1">
-        <v>45403</v>
+        <v>45407</v>
       </c>
       <c r="J126" s="4">
-        <v>29.232650252891698</v>
+        <v>28.371808918683801</v>
       </c>
       <c r="K126" s="4">
-        <v>-81.107395234459503</v>
+        <v>-81.517879136438097</v>
       </c>
       <c r="L126" s="6">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M126" t="s">
-        <v>449</v>
+        <v>50</v>
       </c>
       <c r="N126">
         <v>1</v>
       </c>
       <c r="O126">
-        <v>48</v>
-      </c>
-      <c r="P126">
-        <v>3</v>
-      </c>
-      <c r="Q126">
-        <v>2.75</v>
-      </c>
-      <c r="R126">
-        <f>3+1/16</f>
-        <v>3.0625</v>
+        <v>14</v>
+      </c>
+      <c r="P126" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="Q126" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="R126" s="7">
+        <v>4.5999999999999996</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="27" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -9144,20 +9045,20 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -9186,13 +9087,13 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>80</v>
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -9209,7 +9110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -9226,43 +9127,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>73</v>
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>74</v>
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>75</v>
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>76</v>
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>77</v>
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>78</v>
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>79</v>
       </c>

--- a/data/duck_data.xlsx
+++ b/data/duck_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allan\Documents\DS_Projects\portfolio-deployments\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C43914-BCB4-405D-9CD8-EDBD94FFB52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397363FA-4186-4AE6-9E13-4DD028A2F0F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EF9DEEC2-186D-4161-AB80-57C24753F6AE}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="456">
   <si>
     <t>Duck</t>
   </si>
@@ -1426,6 +1426,12 @@
   </si>
   <si>
     <t>Buc-ee's</t>
+  </si>
+  <si>
+    <t>Hawaiian</t>
+  </si>
+  <si>
+    <t>Disney Carribean Beach Resort</t>
   </si>
 </sst>
 </file>
@@ -1498,7 +1504,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1508,7 +1514,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1568,8 +1573,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{55715085-9AFB-4516-817F-DC3F49C2B133}" name="Table1" displayName="Table1" ref="A1:R126" totalsRowShown="0">
-  <autoFilter ref="A1:R126" xr:uid="{55715085-9AFB-4516-817F-DC3F49C2B133}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{55715085-9AFB-4516-817F-DC3F49C2B133}" name="Table1" displayName="Table1" ref="A1:R127" totalsRowShown="0">
+  <autoFilter ref="A1:R127" xr:uid="{55715085-9AFB-4516-817F-DC3F49C2B133}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R126">
     <sortCondition ref="I1:I126"/>
   </sortState>
@@ -1915,12 +1920,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V126"/>
+  <dimension ref="A1:V127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A39" sqref="A39"/>
-      <selection pane="topRight" activeCell="L45" sqref="L45"/>
+      <selection pane="topRight" activeCell="R125" sqref="R125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4705,13 +4710,13 @@
       <c r="O49">
         <v>50</v>
       </c>
-      <c r="P49" s="7">
+      <c r="P49">
         <v>7.5</v>
       </c>
-      <c r="Q49" s="7">
+      <c r="Q49">
         <v>9.5</v>
       </c>
-      <c r="R49" s="7">
+      <c r="R49">
         <v>9.6999999999999993</v>
       </c>
     </row>
@@ -4761,13 +4766,13 @@
       <c r="O50">
         <v>47</v>
       </c>
-      <c r="P50" s="7">
+      <c r="P50">
         <v>7.6</v>
       </c>
-      <c r="Q50" s="7">
+      <c r="Q50">
         <v>9.8000000000000007</v>
       </c>
-      <c r="R50" s="7">
+      <c r="R50">
         <v>7.9</v>
       </c>
     </row>
@@ -4817,13 +4822,13 @@
       <c r="O51">
         <v>36</v>
       </c>
-      <c r="P51" s="7">
+      <c r="P51">
         <v>7.1</v>
       </c>
-      <c r="Q51" s="7">
+      <c r="Q51">
         <v>6</v>
       </c>
-      <c r="R51" s="7">
+      <c r="R51">
         <v>7.8</v>
       </c>
     </row>
@@ -4873,13 +4878,13 @@
       <c r="O52">
         <v>17</v>
       </c>
-      <c r="P52" s="7">
+      <c r="P52">
         <v>5.4</v>
       </c>
-      <c r="Q52" s="7">
+      <c r="Q52">
         <v>4.5</v>
       </c>
-      <c r="R52" s="7">
+      <c r="R52">
         <v>4.7</v>
       </c>
     </row>
@@ -4929,13 +4934,13 @@
       <c r="O53">
         <v>17</v>
       </c>
-      <c r="P53" s="7">
+      <c r="P53">
         <v>5.4</v>
       </c>
-      <c r="Q53" s="7">
+      <c r="Q53">
         <v>5.6</v>
       </c>
-      <c r="R53" s="7">
+      <c r="R53">
         <v>5.8</v>
       </c>
     </row>
@@ -4985,13 +4990,13 @@
       <c r="O54">
         <v>18</v>
       </c>
-      <c r="P54" s="7">
+      <c r="P54">
         <v>6.1</v>
       </c>
-      <c r="Q54" s="7">
+      <c r="Q54">
         <v>5.7</v>
       </c>
-      <c r="R54" s="7">
+      <c r="R54">
         <v>5.9</v>
       </c>
     </row>
@@ -5041,13 +5046,13 @@
       <c r="O55">
         <v>17</v>
       </c>
-      <c r="P55" s="7">
+      <c r="P55">
         <v>5.7</v>
       </c>
-      <c r="Q55" s="7">
+      <c r="Q55">
         <v>5.7</v>
       </c>
-      <c r="R55" s="7">
+      <c r="R55">
         <v>5.8</v>
       </c>
     </row>
@@ -5097,13 +5102,13 @@
       <c r="O56">
         <v>19</v>
       </c>
-      <c r="P56" s="7">
+      <c r="P56">
         <v>5.8</v>
       </c>
-      <c r="Q56" s="7">
+      <c r="Q56">
         <v>5.7</v>
       </c>
-      <c r="R56" s="7">
+      <c r="R56">
         <v>5.9</v>
       </c>
     </row>
@@ -5153,13 +5158,13 @@
       <c r="O57">
         <v>155</v>
       </c>
-      <c r="P57" s="7">
+      <c r="P57">
         <v>11.5</v>
       </c>
-      <c r="Q57" s="7">
+      <c r="Q57">
         <v>8.1</v>
       </c>
-      <c r="R57" s="7">
+      <c r="R57">
         <v>9.6999999999999993</v>
       </c>
     </row>
@@ -5209,13 +5214,13 @@
       <c r="O58">
         <v>9</v>
       </c>
-      <c r="P58" s="7">
+      <c r="P58">
         <v>3.3</v>
       </c>
-      <c r="Q58" s="7">
+      <c r="Q58">
         <v>4.7</v>
       </c>
-      <c r="R58" s="7">
+      <c r="R58">
         <v>5.4</v>
       </c>
     </row>
@@ -5265,13 +5270,13 @@
       <c r="O59">
         <v>11</v>
       </c>
-      <c r="P59" s="7">
+      <c r="P59">
         <v>6.4</v>
       </c>
-      <c r="Q59" s="7">
+      <c r="Q59">
         <v>3.3</v>
       </c>
-      <c r="R59" s="7">
+      <c r="R59">
         <v>4.3</v>
       </c>
     </row>
@@ -5321,13 +5326,13 @@
       <c r="O60">
         <v>145</v>
       </c>
-      <c r="P60" s="7">
+      <c r="P60">
         <v>7.3</v>
       </c>
-      <c r="Q60" s="7">
+      <c r="Q60">
         <v>6.4</v>
       </c>
-      <c r="R60" s="7">
+      <c r="R60">
         <v>8.3000000000000007</v>
       </c>
     </row>
@@ -5377,13 +5382,13 @@
       <c r="O61">
         <v>107</v>
       </c>
-      <c r="P61" s="7">
+      <c r="P61">
         <v>9.6999999999999993</v>
       </c>
-      <c r="Q61" s="7">
+      <c r="Q61">
         <v>8.3000000000000007</v>
       </c>
-      <c r="R61" s="7">
+      <c r="R61">
         <v>11.7</v>
       </c>
     </row>
@@ -5433,13 +5438,13 @@
       <c r="O62">
         <v>102</v>
       </c>
-      <c r="P62" s="7">
+      <c r="P62">
         <v>9.5</v>
       </c>
-      <c r="Q62" s="7">
+      <c r="Q62">
         <v>8.9</v>
       </c>
-      <c r="R62" s="7">
+      <c r="R62">
         <v>12.1</v>
       </c>
     </row>
@@ -5489,13 +5494,13 @@
       <c r="O63">
         <v>86</v>
       </c>
-      <c r="P63" s="7">
+      <c r="P63">
         <v>8.3000000000000007</v>
       </c>
-      <c r="Q63" s="7">
+      <c r="Q63">
         <v>7</v>
       </c>
-      <c r="R63" s="7">
+      <c r="R63">
         <v>9</v>
       </c>
     </row>
@@ -5545,13 +5550,13 @@
       <c r="O64">
         <v>18</v>
       </c>
-      <c r="P64" s="7">
+      <c r="P64">
         <v>5.0999999999999996</v>
       </c>
-      <c r="Q64" s="7">
+      <c r="Q64">
         <v>5.4</v>
       </c>
-      <c r="R64" s="7">
+      <c r="R64">
         <v>6.2</v>
       </c>
     </row>
@@ -5601,13 +5606,13 @@
       <c r="O65">
         <v>21</v>
       </c>
-      <c r="P65" s="7">
+      <c r="P65">
         <v>5.6</v>
       </c>
-      <c r="Q65" s="7">
+      <c r="Q65">
         <v>5.9</v>
       </c>
-      <c r="R65" s="7">
+      <c r="R65">
         <v>6.4</v>
       </c>
     </row>
@@ -5657,13 +5662,13 @@
       <c r="O66">
         <v>24</v>
       </c>
-      <c r="P66" s="7">
+      <c r="P66">
         <v>6.5</v>
       </c>
-      <c r="Q66" s="7">
+      <c r="Q66">
         <v>5.0999999999999996</v>
       </c>
-      <c r="R66" s="7">
+      <c r="R66">
         <v>5.7</v>
       </c>
     </row>
@@ -5713,13 +5718,13 @@
       <c r="O67">
         <v>26</v>
       </c>
-      <c r="P67" s="7">
+      <c r="P67">
         <v>6.7</v>
       </c>
-      <c r="Q67" s="7">
+      <c r="Q67">
         <v>5.7</v>
       </c>
-      <c r="R67" s="7">
+      <c r="R67">
         <v>5.6</v>
       </c>
     </row>
@@ -5769,13 +5774,13 @@
       <c r="O68">
         <v>162</v>
       </c>
-      <c r="P68" s="7">
+      <c r="P68">
         <v>13.3</v>
       </c>
-      <c r="Q68" s="7">
+      <c r="Q68">
         <v>13.7</v>
       </c>
-      <c r="R68" s="7">
+      <c r="R68">
         <v>16.5</v>
       </c>
     </row>
@@ -5825,13 +5830,13 @@
       <c r="O69">
         <v>25</v>
       </c>
-      <c r="P69" s="7">
+      <c r="P69">
         <v>7.5</v>
       </c>
-      <c r="Q69" s="7">
+      <c r="Q69">
         <v>5.4</v>
       </c>
-      <c r="R69" s="7">
+      <c r="R69">
         <v>5.4</v>
       </c>
     </row>
@@ -5881,13 +5886,13 @@
       <c r="O70">
         <v>24</v>
       </c>
-      <c r="P70" s="7">
+      <c r="P70">
         <v>6.7</v>
       </c>
-      <c r="Q70" s="7">
+      <c r="Q70">
         <v>4.9000000000000004</v>
       </c>
-      <c r="R70" s="7">
+      <c r="R70">
         <v>7.1</v>
       </c>
     </row>
@@ -5937,13 +5942,13 @@
       <c r="O71">
         <v>39</v>
       </c>
-      <c r="P71" s="7">
+      <c r="P71">
         <v>6.4</v>
       </c>
-      <c r="Q71" s="7">
+      <c r="Q71">
         <v>6.4</v>
       </c>
-      <c r="R71" s="7">
+      <c r="R71">
         <v>7.6</v>
       </c>
     </row>
@@ -5993,13 +5998,13 @@
       <c r="O72">
         <v>163</v>
       </c>
-      <c r="P72" s="7">
+      <c r="P72">
         <v>6.3</v>
       </c>
-      <c r="Q72" s="7">
+      <c r="Q72">
         <v>6.1</v>
       </c>
-      <c r="R72" s="7">
+      <c r="R72">
         <v>6.8</v>
       </c>
     </row>
@@ -6049,13 +6054,13 @@
       <c r="O73">
         <v>56</v>
       </c>
-      <c r="P73" s="7">
+      <c r="P73">
         <v>8.3000000000000007</v>
       </c>
-      <c r="Q73" s="7">
+      <c r="Q73">
         <v>7.9</v>
       </c>
-      <c r="R73" s="7">
+      <c r="R73">
         <v>8.9</v>
       </c>
     </row>
@@ -6105,13 +6110,13 @@
       <c r="O74">
         <v>56</v>
       </c>
-      <c r="P74" s="7">
+      <c r="P74">
         <v>8.3000000000000007</v>
       </c>
-      <c r="Q74" s="7">
+      <c r="Q74">
         <v>8.4</v>
       </c>
-      <c r="R74" s="7">
+      <c r="R74">
         <v>8.9</v>
       </c>
     </row>
@@ -6161,13 +6166,13 @@
       <c r="O75">
         <v>55</v>
       </c>
-      <c r="P75" s="7">
+      <c r="P75">
         <v>8.6</v>
       </c>
-      <c r="Q75" s="7">
+      <c r="Q75">
         <v>7.9</v>
       </c>
-      <c r="R75" s="7">
+      <c r="R75">
         <v>8.9</v>
       </c>
     </row>
@@ -6217,13 +6222,13 @@
       <c r="O76">
         <v>55</v>
       </c>
-      <c r="P76" s="7">
+      <c r="P76">
         <v>8.4</v>
       </c>
-      <c r="Q76" s="7">
+      <c r="Q76">
         <v>9.6999999999999993</v>
       </c>
-      <c r="R76" s="7">
+      <c r="R76">
         <v>9.1999999999999993</v>
       </c>
     </row>
@@ -6273,13 +6278,13 @@
       <c r="O77">
         <v>62</v>
       </c>
-      <c r="P77" s="7">
+      <c r="P77">
         <v>7.9</v>
       </c>
-      <c r="Q77" s="7">
+      <c r="Q77">
         <v>9.8000000000000007</v>
       </c>
-      <c r="R77" s="7">
+      <c r="R77">
         <v>8.9</v>
       </c>
     </row>
@@ -6329,13 +6334,13 @@
       <c r="O78">
         <v>116</v>
       </c>
-      <c r="P78" s="7">
+      <c r="P78">
         <v>7.9</v>
       </c>
-      <c r="Q78" s="7">
+      <c r="Q78">
         <v>6.7</v>
       </c>
-      <c r="R78" s="7">
+      <c r="R78">
         <v>8.9</v>
       </c>
     </row>
@@ -6385,13 +6390,13 @@
       <c r="O79">
         <v>67</v>
       </c>
-      <c r="P79" s="7">
+      <c r="P79">
         <v>11.3</v>
       </c>
-      <c r="Q79" s="7">
+      <c r="Q79">
         <v>7.8</v>
       </c>
-      <c r="R79" s="7">
+      <c r="R79">
         <v>10.3</v>
       </c>
     </row>
@@ -6441,13 +6446,13 @@
       <c r="O80">
         <v>59</v>
       </c>
-      <c r="P80" s="7">
+      <c r="P80">
         <v>9.6999999999999993</v>
       </c>
-      <c r="Q80" s="7">
+      <c r="Q80">
         <v>9.8000000000000007</v>
       </c>
-      <c r="R80" s="7">
+      <c r="R80">
         <v>8.6999999999999993</v>
       </c>
     </row>
@@ -6497,13 +6502,13 @@
       <c r="O81">
         <v>54</v>
       </c>
-      <c r="P81" s="7">
+      <c r="P81">
         <v>7.9</v>
       </c>
-      <c r="Q81" s="7">
+      <c r="Q81">
         <v>8.6999999999999993</v>
       </c>
-      <c r="R81" s="7">
+      <c r="R81">
         <v>12.2</v>
       </c>
     </row>
@@ -6553,13 +6558,13 @@
       <c r="O82">
         <v>95</v>
       </c>
-      <c r="P82" s="7">
+      <c r="P82">
         <v>7.8</v>
       </c>
-      <c r="Q82" s="7">
+      <c r="Q82">
         <v>12.4</v>
       </c>
-      <c r="R82" s="7">
+      <c r="R82">
         <v>12.4</v>
       </c>
     </row>
@@ -6609,13 +6614,13 @@
       <c r="O83">
         <v>0.1</v>
       </c>
-      <c r="P83" s="7">
+      <c r="P83">
         <v>1.6</v>
       </c>
-      <c r="Q83" s="7">
+      <c r="Q83">
         <v>1.4</v>
       </c>
-      <c r="R83" s="7">
+      <c r="R83">
         <v>1.4</v>
       </c>
     </row>
@@ -6665,13 +6670,13 @@
       <c r="O84">
         <v>42</v>
       </c>
-      <c r="P84" s="7">
+      <c r="P84">
         <v>9.8000000000000007</v>
       </c>
-      <c r="Q84" s="7">
+      <c r="Q84">
         <v>9.4</v>
       </c>
-      <c r="R84" s="7">
+      <c r="R84">
         <v>8.3000000000000007</v>
       </c>
     </row>
@@ -6721,13 +6726,13 @@
       <c r="O85">
         <v>48</v>
       </c>
-      <c r="P85" s="7">
+      <c r="P85">
         <v>8.4</v>
       </c>
-      <c r="Q85" s="7">
+      <c r="Q85">
         <v>9.5</v>
       </c>
-      <c r="R85" s="7">
+      <c r="R85">
         <v>9.1999999999999993</v>
       </c>
     </row>
@@ -6777,13 +6782,13 @@
       <c r="O86">
         <v>66</v>
       </c>
-      <c r="P86" s="7">
+      <c r="P86">
         <v>7.1</v>
       </c>
-      <c r="Q86" s="7">
+      <c r="Q86">
         <v>7.3</v>
       </c>
-      <c r="R86" s="7">
+      <c r="R86">
         <v>8.4</v>
       </c>
     </row>
@@ -6833,13 +6838,13 @@
       <c r="O87">
         <v>22</v>
       </c>
-      <c r="P87" s="7">
+      <c r="P87">
         <v>6.8</v>
       </c>
-      <c r="Q87" s="7">
+      <c r="Q87">
         <v>5.0999999999999996</v>
       </c>
-      <c r="R87" s="7">
+      <c r="R87">
         <v>5.6</v>
       </c>
     </row>
@@ -6889,13 +6894,13 @@
       <c r="O88">
         <v>17</v>
       </c>
-      <c r="P88" s="7">
+      <c r="P88">
         <v>4</v>
       </c>
-      <c r="Q88" s="7">
+      <c r="Q88">
         <v>4.4000000000000004</v>
       </c>
-      <c r="R88" s="7">
+      <c r="R88">
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -6945,13 +6950,13 @@
       <c r="O89">
         <v>19</v>
       </c>
-      <c r="P89" s="7">
+      <c r="P89">
         <v>6</v>
       </c>
-      <c r="Q89" s="7">
+      <c r="Q89">
         <v>4.8</v>
       </c>
-      <c r="R89" s="7">
+      <c r="R89">
         <v>6.2</v>
       </c>
     </row>
@@ -7001,13 +7006,13 @@
       <c r="O90">
         <v>15</v>
       </c>
-      <c r="P90" s="7">
+      <c r="P90">
         <v>7.3</v>
       </c>
-      <c r="Q90" s="7">
+      <c r="Q90">
         <v>5.0999999999999996</v>
       </c>
-      <c r="R90" s="7">
+      <c r="R90">
         <v>5.0999999999999996</v>
       </c>
     </row>
@@ -7057,13 +7062,13 @@
       <c r="O91">
         <v>18</v>
       </c>
-      <c r="P91" s="7">
+      <c r="P91">
         <v>6.2</v>
       </c>
-      <c r="Q91" s="7">
+      <c r="Q91">
         <v>4.9000000000000004</v>
       </c>
-      <c r="R91" s="7">
+      <c r="R91">
         <v>3.5</v>
       </c>
     </row>
@@ -7113,13 +7118,13 @@
       <c r="O92">
         <v>17</v>
       </c>
-      <c r="P92" s="7">
+      <c r="P92">
         <v>4.9000000000000004</v>
       </c>
-      <c r="Q92" s="7">
+      <c r="Q92">
         <v>4.8</v>
       </c>
-      <c r="R92" s="7">
+      <c r="R92">
         <v>5.0999999999999996</v>
       </c>
     </row>
@@ -7169,13 +7174,13 @@
       <c r="O93">
         <v>14</v>
       </c>
-      <c r="P93" s="7">
+      <c r="P93">
         <v>4.9000000000000004</v>
       </c>
-      <c r="Q93" s="7">
+      <c r="Q93">
         <v>4.5999999999999996</v>
       </c>
-      <c r="R93" s="7">
+      <c r="R93">
         <v>4.8</v>
       </c>
     </row>
@@ -7225,13 +7230,13 @@
       <c r="O94">
         <v>6</v>
       </c>
-      <c r="P94" s="7">
+      <c r="P94">
         <v>2.9</v>
       </c>
-      <c r="Q94" s="7">
+      <c r="Q94">
         <v>3.7</v>
       </c>
-      <c r="R94" s="7">
+      <c r="R94">
         <v>3.3</v>
       </c>
     </row>
@@ -7281,13 +7286,13 @@
       <c r="O95">
         <v>43</v>
       </c>
-      <c r="P95" s="7">
+      <c r="P95">
         <v>7.6</v>
       </c>
-      <c r="Q95" s="7">
+      <c r="Q95">
         <v>7.3</v>
       </c>
-      <c r="R95" s="7">
+      <c r="R95">
         <v>8.4</v>
       </c>
     </row>
@@ -7337,13 +7342,13 @@
       <c r="O96">
         <v>45</v>
       </c>
-      <c r="P96" s="7">
+      <c r="P96">
         <v>8.4</v>
       </c>
-      <c r="Q96" s="7">
+      <c r="Q96">
         <v>9.8000000000000007</v>
       </c>
-      <c r="R96" s="7">
+      <c r="R96">
         <v>7.9</v>
       </c>
     </row>
@@ -7393,13 +7398,13 @@
       <c r="O97">
         <v>48</v>
       </c>
-      <c r="P97" s="7">
+      <c r="P97">
         <v>8.6</v>
       </c>
-      <c r="Q97" s="7">
+      <c r="Q97">
         <v>9.8000000000000007</v>
       </c>
-      <c r="R97" s="7">
+      <c r="R97">
         <v>7.9</v>
       </c>
     </row>
@@ -7449,13 +7454,13 @@
       <c r="O98">
         <v>47</v>
       </c>
-      <c r="P98" s="7">
+      <c r="P98">
         <v>8.6</v>
       </c>
-      <c r="Q98" s="7">
+      <c r="Q98">
         <v>9.8000000000000007</v>
       </c>
-      <c r="R98" s="7">
+      <c r="R98">
         <v>7.9</v>
       </c>
     </row>
@@ -7505,13 +7510,13 @@
       <c r="O99">
         <v>153</v>
       </c>
-      <c r="P99" s="7">
+      <c r="P99">
         <v>12.7</v>
       </c>
-      <c r="Q99" s="7">
+      <c r="Q99">
         <v>13.3</v>
       </c>
-      <c r="R99" s="7">
+      <c r="R99">
         <v>16.5</v>
       </c>
     </row>
@@ -7561,13 +7566,13 @@
       <c r="O100">
         <v>19</v>
       </c>
-      <c r="P100" s="7">
+      <c r="P100">
         <v>4.9000000000000004</v>
       </c>
-      <c r="Q100" s="7">
+      <c r="Q100">
         <v>4.8</v>
       </c>
-      <c r="R100" s="7">
+      <c r="R100">
         <v>5.9</v>
       </c>
     </row>
@@ -7617,13 +7622,13 @@
       <c r="O101">
         <v>19</v>
       </c>
-      <c r="P101" s="7">
+      <c r="P101">
         <v>5.0999999999999996</v>
       </c>
-      <c r="Q101" s="7">
+      <c r="Q101">
         <v>4.8</v>
       </c>
-      <c r="R101" s="7">
+      <c r="R101">
         <v>5.9</v>
       </c>
     </row>
@@ -7673,13 +7678,13 @@
       <c r="O102">
         <v>18</v>
       </c>
-      <c r="P102" s="7">
+      <c r="P102">
         <v>5.0999999999999996</v>
       </c>
-      <c r="Q102" s="7">
+      <c r="Q102">
         <v>4.8</v>
       </c>
-      <c r="R102" s="7">
+      <c r="R102">
         <v>5.6</v>
       </c>
     </row>
@@ -7729,13 +7734,13 @@
       <c r="O103">
         <v>18</v>
       </c>
-      <c r="P103" s="7">
+      <c r="P103">
         <v>5.2</v>
       </c>
-      <c r="Q103" s="7">
+      <c r="Q103">
         <v>4.8</v>
       </c>
-      <c r="R103" s="7">
+      <c r="R103">
         <v>5.4</v>
       </c>
     </row>
@@ -7785,13 +7790,13 @@
       <c r="O104">
         <v>22</v>
       </c>
-      <c r="P104" s="7">
+      <c r="P104">
         <v>6.4</v>
       </c>
-      <c r="Q104" s="7">
+      <c r="Q104">
         <v>4.9000000000000004</v>
       </c>
-      <c r="R104" s="7">
+      <c r="R104">
         <v>5.4</v>
       </c>
     </row>
@@ -7841,13 +7846,13 @@
       <c r="O105">
         <v>20</v>
       </c>
-      <c r="P105" s="7">
+      <c r="P105">
         <v>5.9</v>
       </c>
-      <c r="Q105" s="7">
+      <c r="Q105">
         <v>4.3</v>
       </c>
-      <c r="R105" s="7">
+      <c r="R105">
         <v>6.2</v>
       </c>
     </row>
@@ -7897,13 +7902,13 @@
       <c r="O106">
         <v>70</v>
       </c>
-      <c r="P106" s="7">
+      <c r="P106">
         <v>6.7</v>
       </c>
-      <c r="Q106" s="7">
+      <c r="Q106">
         <v>7.6</v>
       </c>
-      <c r="R106" s="7">
+      <c r="R106">
         <v>6.7</v>
       </c>
     </row>
@@ -7953,13 +7958,13 @@
       <c r="O107">
         <v>17</v>
       </c>
-      <c r="P107" s="7">
+      <c r="P107">
         <v>5.7</v>
       </c>
-      <c r="Q107" s="7">
+      <c r="Q107">
         <v>4.8</v>
       </c>
-      <c r="R107" s="7">
+      <c r="R107">
         <v>4.8</v>
       </c>
     </row>
@@ -8009,13 +8014,13 @@
       <c r="O108">
         <v>15</v>
       </c>
-      <c r="P108" s="7">
+      <c r="P108">
         <v>5.0999999999999996</v>
       </c>
-      <c r="Q108" s="7">
+      <c r="Q108">
         <v>4.5999999999999996</v>
       </c>
-      <c r="R108" s="7">
+      <c r="R108">
         <v>4.8</v>
       </c>
     </row>
@@ -8065,13 +8070,13 @@
       <c r="O109">
         <v>54</v>
       </c>
-      <c r="P109" s="7">
+      <c r="P109">
         <v>7.6</v>
       </c>
-      <c r="Q109" s="7">
+      <c r="Q109">
         <v>6.7</v>
       </c>
-      <c r="R109" s="7">
+      <c r="R109">
         <v>8.9</v>
       </c>
     </row>
@@ -8121,13 +8126,13 @@
       <c r="O110">
         <v>17</v>
       </c>
-      <c r="P110" s="7">
+      <c r="P110">
         <v>4.4000000000000004</v>
       </c>
-      <c r="Q110" s="7">
+      <c r="Q110">
         <v>4.5999999999999996</v>
       </c>
-      <c r="R110" s="7">
+      <c r="R110">
         <v>5.0999999999999996</v>
       </c>
     </row>
@@ -8177,13 +8182,13 @@
       <c r="O111">
         <v>68</v>
       </c>
-      <c r="P111" s="7">
+      <c r="P111">
         <v>8.9</v>
       </c>
-      <c r="Q111" s="7">
+      <c r="Q111">
         <v>8.6</v>
       </c>
-      <c r="R111" s="7">
+      <c r="R111">
         <v>9</v>
       </c>
     </row>
@@ -8233,13 +8238,13 @@
       <c r="O112">
         <v>8</v>
       </c>
-      <c r="P112" s="7">
+      <c r="P112">
         <v>3.2</v>
       </c>
-      <c r="Q112" s="7">
+      <c r="Q112">
         <v>3.7</v>
       </c>
-      <c r="R112" s="7">
+      <c r="R112">
         <v>3.5</v>
       </c>
     </row>
@@ -8289,13 +8294,13 @@
       <c r="O113">
         <v>28</v>
       </c>
-      <c r="P113" s="7">
+      <c r="P113">
         <v>6.4</v>
       </c>
-      <c r="Q113" s="7">
+      <c r="Q113">
         <v>6</v>
       </c>
-      <c r="R113" s="7">
+      <c r="R113">
         <v>6.4</v>
       </c>
     </row>
@@ -8345,13 +8350,13 @@
       <c r="O114">
         <v>28</v>
       </c>
-      <c r="P114" s="7">
+      <c r="P114">
         <v>7</v>
       </c>
-      <c r="Q114" s="7">
+      <c r="Q114">
         <v>6</v>
       </c>
-      <c r="R114" s="7">
+      <c r="R114">
         <v>7.6</v>
       </c>
     </row>
@@ -8401,13 +8406,13 @@
       <c r="O115">
         <v>65</v>
       </c>
-      <c r="P115" s="7">
+      <c r="P115">
         <v>8.9</v>
       </c>
-      <c r="Q115" s="7">
+      <c r="Q115">
         <v>8.1</v>
       </c>
-      <c r="R115" s="7">
+      <c r="R115">
         <v>10.6</v>
       </c>
     </row>
@@ -8457,13 +8462,13 @@
       <c r="O116">
         <v>64</v>
       </c>
-      <c r="P116" s="7">
+      <c r="P116">
         <v>8.3000000000000007</v>
       </c>
-      <c r="Q116" s="7">
+      <c r="Q116">
         <v>8.1</v>
       </c>
-      <c r="R116" s="7">
+      <c r="R116">
         <v>12.4</v>
       </c>
     </row>
@@ -8513,13 +8518,13 @@
       <c r="O117">
         <v>16</v>
       </c>
-      <c r="P117" s="7">
+      <c r="P117">
         <v>5.0999999999999996</v>
       </c>
-      <c r="Q117" s="7">
+      <c r="Q117">
         <v>7.3</v>
       </c>
-      <c r="R117" s="7">
+      <c r="R117">
         <v>5.2</v>
       </c>
     </row>
@@ -8569,13 +8574,13 @@
       <c r="O118">
         <v>18</v>
       </c>
-      <c r="P118" s="7">
+      <c r="P118">
         <v>7.1</v>
       </c>
-      <c r="Q118" s="7">
+      <c r="Q118">
         <v>5.0999999999999996</v>
       </c>
-      <c r="R118" s="7">
+      <c r="R118">
         <v>5.2</v>
       </c>
     </row>
@@ -8625,13 +8630,13 @@
       <c r="O119">
         <v>18</v>
       </c>
-      <c r="P119" s="7">
+      <c r="P119">
         <v>5.7</v>
       </c>
-      <c r="Q119" s="7">
+      <c r="Q119">
         <v>7.3</v>
       </c>
-      <c r="R119" s="7">
+      <c r="R119">
         <v>5.2</v>
       </c>
     </row>
@@ -8681,13 +8686,13 @@
       <c r="O120">
         <v>28</v>
       </c>
-      <c r="P120" s="7">
+      <c r="P120">
         <v>6.7</v>
       </c>
-      <c r="Q120" s="7">
+      <c r="Q120">
         <v>5.7</v>
       </c>
-      <c r="R120" s="7">
+      <c r="R120">
         <v>7.5</v>
       </c>
     </row>
@@ -8737,13 +8742,13 @@
       <c r="O121">
         <v>27</v>
       </c>
-      <c r="P121" s="7">
+      <c r="P121">
         <v>5.7</v>
       </c>
-      <c r="Q121" s="7">
+      <c r="Q121">
         <v>5.6</v>
       </c>
-      <c r="R121" s="7">
+      <c r="R121">
         <v>6</v>
       </c>
     </row>
@@ -8793,13 +8798,13 @@
       <c r="O122">
         <v>35</v>
       </c>
-      <c r="P122" s="7">
+      <c r="P122">
         <v>4.0999999999999996</v>
       </c>
-      <c r="Q122" s="7">
+      <c r="Q122">
         <v>5.4</v>
       </c>
-      <c r="R122" s="7">
+      <c r="R122">
         <v>7</v>
       </c>
     </row>
@@ -8849,13 +8854,13 @@
       <c r="O123">
         <v>15</v>
       </c>
-      <c r="P123" s="7">
+      <c r="P123">
         <v>5.9</v>
       </c>
-      <c r="Q123" s="7">
+      <c r="Q123">
         <v>5.4</v>
       </c>
-      <c r="R123" s="7">
+      <c r="R123">
         <v>4.8</v>
       </c>
     </row>
@@ -8905,13 +8910,13 @@
       <c r="O124">
         <v>48</v>
       </c>
-      <c r="P124" s="7">
+      <c r="P124">
         <v>7.6</v>
       </c>
-      <c r="Q124" s="7">
+      <c r="Q124">
         <v>7</v>
       </c>
-      <c r="R124" s="7">
+      <c r="R124">
         <v>7.8</v>
       </c>
     </row>
@@ -8961,13 +8966,13 @@
       <c r="O125">
         <v>18</v>
       </c>
-      <c r="P125" s="7">
+      <c r="P125">
         <v>5.0999999999999996</v>
       </c>
-      <c r="Q125" s="7">
+      <c r="Q125">
         <v>4.0999999999999996</v>
       </c>
-      <c r="R125" s="7">
+      <c r="R125">
         <v>5.7</v>
       </c>
     </row>
@@ -9017,14 +9022,70 @@
       <c r="O126">
         <v>14</v>
       </c>
-      <c r="P126" s="7">
+      <c r="P126">
         <v>5.4</v>
       </c>
-      <c r="Q126" s="7">
+      <c r="Q126">
         <v>4.0999999999999996</v>
       </c>
-      <c r="R126" s="7">
+      <c r="R126">
         <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>454</v>
+      </c>
+      <c r="B127">
+        <v>60</v>
+      </c>
+      <c r="C127" t="s">
+        <v>98</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E127" t="s">
+        <v>452</v>
+      </c>
+      <c r="F127" t="s">
+        <v>167</v>
+      </c>
+      <c r="G127" t="s">
+        <v>146</v>
+      </c>
+      <c r="H127" t="s">
+        <v>146</v>
+      </c>
+      <c r="I127" s="1">
+        <v>45405</v>
+      </c>
+      <c r="J127" s="4">
+        <v>28.3616867683712</v>
+      </c>
+      <c r="K127" s="4">
+        <v>-81.544157111972098</v>
+      </c>
+      <c r="L127" s="6">
+        <v>52</v>
+      </c>
+      <c r="M127" t="s">
+        <v>449</v>
+      </c>
+      <c r="N127">
+        <v>1</v>
+      </c>
+      <c r="O127">
+        <v>19</v>
+      </c>
+      <c r="P127">
+        <v>5</v>
+      </c>
+      <c r="Q127">
+        <v>5.3</v>
+      </c>
+      <c r="R127">
+        <v>5.5</v>
       </c>
     </row>
   </sheetData>
